--- a/master_data/catalog_series_old_and_new.xlsx
+++ b/master_data/catalog_series_old_and_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B9237-3AA2-4A32-81FF-A039D84F92F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC35898D-23DA-4530-A8BE-81ECDF5C6FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="431">
   <si>
     <t>INDICATOR_ID</t>
   </si>
@@ -1283,6 +1283,39 @@
   </si>
   <si>
     <t>PDM</t>
+  </si>
+  <si>
+    <t>I.1q</t>
+  </si>
+  <si>
+    <t>I.2q</t>
+  </si>
+  <si>
+    <t>I.3q</t>
+  </si>
+  <si>
+    <t>I.4q</t>
+  </si>
+  <si>
+    <t>IV.1q</t>
+  </si>
+  <si>
+    <t>IV.2q</t>
+  </si>
+  <si>
+    <t>IV.3q</t>
+  </si>
+  <si>
+    <t>V.1q</t>
+  </si>
+  <si>
+    <t>V.2q</t>
+  </si>
+  <si>
+    <t>V.3q</t>
+  </si>
+  <si>
+    <t>V.4q</t>
   </si>
 </sst>
 </file>
@@ -2185,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M125" sqref="M125"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126:F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,7 +5917,7 @@
         <v>348</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>349</v>
@@ -5926,7 +5959,7 @@
         <v>348</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>350</v>
@@ -5968,7 +6001,7 @@
         <v>351</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>352</v>
@@ -6010,7 +6043,7 @@
         <v>351</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>353</v>
@@ -6052,7 +6085,7 @@
         <v>351</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>354</v>
@@ -6094,7 +6127,7 @@
         <v>351</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>355</v>
@@ -6136,7 +6169,7 @@
         <v>79580982</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>94</v>
+        <v>422</v>
       </c>
       <c r="G95" s="4">
         <v>79580982</v>
@@ -6178,7 +6211,7 @@
         <v>356</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>100</v>
+        <v>423</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>356</v>
@@ -6220,7 +6253,7 @@
         <v>357</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>285</v>
+        <v>424</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>357</v>
@@ -6262,7 +6295,7 @@
         <v>358</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>290</v>
+        <v>425</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>358</v>
@@ -6304,7 +6337,7 @@
         <v>359</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>359</v>
@@ -6342,7 +6375,7 @@
         <v>360</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>360</v>
@@ -6382,7 +6415,7 @@
         <v>360</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G101" s="4">
         <v>17230409</v>
@@ -6422,7 +6455,7 @@
         <v>360</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>363</v>
@@ -6462,7 +6495,7 @@
         <v>360</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>365</v>
@@ -6502,7 +6535,7 @@
         <v>360</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>367</v>
@@ -6542,7 +6575,7 @@
         <v>360</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>369</v>
@@ -6582,7 +6615,7 @@
         <v>360</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>371</v>
@@ -6622,7 +6655,7 @@
         <v>360</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>373</v>
@@ -6662,7 +6695,7 @@
         <v>360</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>375</v>
@@ -6702,7 +6735,7 @@
         <v>360</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>377</v>
@@ -6736,7 +6769,7 @@
         <v>379</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>380</v>
@@ -6772,7 +6805,7 @@
         <v>379</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>383</v>
@@ -6808,7 +6841,7 @@
         <v>379</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>386</v>
@@ -6844,7 +6877,7 @@
         <v>379</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>389</v>
@@ -6884,7 +6917,7 @@
         <v>392</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>393</v>
@@ -6926,7 +6959,7 @@
         <v>392</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>392</v>
@@ -6966,7 +6999,7 @@
         <v>392</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>396</v>
@@ -7006,7 +7039,7 @@
         <v>392</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>397</v>
@@ -7044,7 +7077,7 @@
         <v>398</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>398</v>
@@ -7088,7 +7121,7 @@
         <v>398</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>400</v>
@@ -7130,7 +7163,7 @@
         <v>398</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>401</v>
@@ -7170,7 +7203,7 @@
         <v>402</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>402</v>
@@ -7210,7 +7243,7 @@
         <v>402</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>404</v>
@@ -7252,7 +7285,7 @@
         <v>402</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>406</v>

--- a/master_data/catalog_series_old_and_new.xlsx
+++ b/master_data/catalog_series_old_and_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC35898D-23DA-4530-A8BE-81ECDF5C6FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9125BC9-EEA4-4DD0-8B0F-70A9D5974AFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_series_old" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">catalog_series_old!$A$1:$P$123</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="485">
   <si>
     <t>INDICATOR_ID</t>
   </si>
@@ -265,15 +276,9 @@
     <t>MINSET_SERIES_pre2021</t>
   </si>
   <si>
-    <t>98ba1fd8</t>
-  </si>
-  <si>
     <t>I.1</t>
   </si>
   <si>
-    <t>997d1fdb</t>
-  </si>
-  <si>
     <t>SL_DOM_TSPD</t>
   </si>
   <si>
@@ -283,48 +288,24 @@
     <t>economy, work, well-being</t>
   </si>
   <si>
-    <t>c59d1d8b</t>
-  </si>
-  <si>
     <t>SL_DOM_TSPDDC</t>
   </si>
   <si>
-    <t>0db81b0d</t>
-  </si>
-  <si>
     <t>SL_DOM_TSPDCW</t>
   </si>
   <si>
-    <t>c62a19e8</t>
-  </si>
-  <si>
     <t>I.2</t>
   </si>
   <si>
-    <t>ad2e1d29</t>
-  </si>
-  <si>
-    <t>a7751861</t>
-  </si>
-  <si>
     <t>I.3</t>
   </si>
   <si>
-    <t>d4e715ea</t>
-  </si>
-  <si>
     <t>EAP_DWAP_SEX_AGE_RT_A</t>
   </si>
   <si>
     <t>economy, work, rights</t>
   </si>
   <si>
-    <t>ab331582</t>
-  </si>
-  <si>
-    <t>8bd915c9</t>
-  </si>
-  <si>
     <t>I.4</t>
   </si>
   <si>
@@ -334,21 +315,12 @@
     <t>I.5</t>
   </si>
   <si>
-    <t>c273120e</t>
-  </si>
-  <si>
     <t>I.6</t>
   </si>
   <si>
-    <t>57821c41</t>
-  </si>
-  <si>
     <t>I.7</t>
   </si>
   <si>
-    <t>51781c19</t>
-  </si>
-  <si>
     <t>Proportion of youth not in education, employment or training, by sex and age</t>
   </si>
   <si>
@@ -358,51 +330,24 @@
     <t>economy, work, rights, youth</t>
   </si>
   <si>
-    <t>b4d516a8</t>
-  </si>
-  <si>
-    <t>5dba0fb5</t>
-  </si>
-  <si>
     <t>Percentage of firms owned by women, by size (retired)</t>
   </si>
   <si>
-    <t>0cfd2d68</t>
-  </si>
-  <si>
     <t>I.8</t>
   </si>
   <si>
-    <t>8d681d8b</t>
-  </si>
-  <si>
     <t>EMP_TEMP_SEX_ECO_NB_A</t>
   </si>
   <si>
     <t>economy, employment</t>
   </si>
   <si>
-    <t>51b31cbb</t>
-  </si>
-  <si>
-    <t>f8fc1b6d</t>
-  </si>
-  <si>
-    <t>ddba1b3e</t>
-  </si>
-  <si>
     <t>I.9</t>
   </si>
   <si>
-    <t>df4d1b4b</t>
-  </si>
-  <si>
     <t>SL_ISV_IFEM</t>
   </si>
   <si>
-    <t>a3981659</t>
-  </si>
-  <si>
     <t>I.10</t>
   </si>
   <si>
@@ -415,21 +360,12 @@
     <t>changed into 'Unemployment rate, by sex and age"</t>
   </si>
   <si>
-    <t>d5a60c11</t>
-  </si>
-  <si>
-    <t>36180f12</t>
-  </si>
-  <si>
     <t>Unemployment rate, by sex and disability</t>
   </si>
   <si>
     <t>SL_TLF_UEMDIS</t>
   </si>
   <si>
-    <t>0d5c350a</t>
-  </si>
-  <si>
     <t>I.11</t>
   </si>
   <si>
@@ -439,75 +375,45 @@
     <t>economy, assets</t>
   </si>
   <si>
-    <t>e9834abb</t>
-  </si>
-  <si>
     <t>I.12</t>
   </si>
   <si>
     <t>Proportion of total agricultural population with ownership or secure rights over agricultural land, by sex; and (b) share of women among owners or rights-bearers of agricultural land, by type of tenure</t>
   </si>
   <si>
-    <t>5bf21940</t>
-  </si>
-  <si>
     <t>I.13</t>
   </si>
   <si>
-    <t>2d8b1bf8</t>
-  </si>
-  <si>
     <t>Average hourly earnings of employees by sex and occupation (local currency)</t>
   </si>
   <si>
     <t>SL_EMP_EARN</t>
   </si>
   <si>
-    <t>d1cf0c58</t>
-  </si>
-  <si>
     <t>Gender gap in wages, by occupation</t>
   </si>
   <si>
-    <t>c6bf121c</t>
-  </si>
-  <si>
     <t>I.14</t>
   </si>
   <si>
     <t>EMP_PTER_SEX_RT_A</t>
   </si>
   <si>
-    <t>c6982113</t>
-  </si>
-  <si>
     <t>I.15</t>
   </si>
   <si>
-    <t>21ec2428</t>
-  </si>
-  <si>
     <t>Prime-age employment-to-population ratio by sex, household type and number of children under age 6</t>
   </si>
   <si>
     <t>GED_PEPR_SEX_HHT_CHL_RT</t>
   </si>
   <si>
-    <t>6e1d24f4</t>
-  </si>
-  <si>
     <t>Prime-age employment-to-population ratio by sex, household type and presence of children under age 6</t>
   </si>
   <si>
-    <t>f922306b</t>
-  </si>
-  <si>
     <t>Employment rate of persons aged 25-49 with a child under age 3 living in a household and with no children living in the household, by sex (retired)</t>
   </si>
   <si>
-    <t>8fde19b4</t>
-  </si>
-  <si>
     <t>I.16</t>
   </si>
   <si>
@@ -517,42 +423,27 @@
     <t>SI_POV_EMP1</t>
   </si>
   <si>
-    <t>c94311cc</t>
-  </si>
-  <si>
     <t>Proportion of children under age 3 in formal care (retired)</t>
   </si>
   <si>
     <t>I.17</t>
   </si>
   <si>
-    <t>b8e91664</t>
-  </si>
-  <si>
     <t>I.18</t>
   </si>
   <si>
     <t>IT_MOB_OWN</t>
   </si>
   <si>
-    <t>f3a22329</t>
-  </si>
-  <si>
     <t>I.19</t>
   </si>
   <si>
     <t>Proportion of households with access to mass media (radio, TV, Internet), by sex of household head (retired)</t>
   </si>
   <si>
-    <t>2e391327</t>
-  </si>
-  <si>
     <t>II.1</t>
   </si>
   <si>
-    <t>ed7f11c7</t>
-  </si>
-  <si>
     <t>LR_Ag15t24, LR_Ag15t24_F, LR_Ag15t24_M, LR_Ag15t24_gpia</t>
   </si>
   <si>
@@ -562,9 +453,6 @@
     <t>education, quality</t>
   </si>
   <si>
-    <t>182613ba</t>
-  </si>
-  <si>
     <t>II.2</t>
   </si>
   <si>
@@ -574,75 +462,45 @@
     <t>NERT_1_F_CP, NERT_1_CP, NERT_1_M_CP</t>
   </si>
   <si>
-    <t>cd351aff</t>
-  </si>
-  <si>
     <t>Gender parity index of the total net enrolment rate in primary education</t>
   </si>
   <si>
     <t>NERT_1_GPI</t>
   </si>
   <si>
-    <t>456b14be</t>
-  </si>
-  <si>
     <t>Adjusted net enrolment rate in primary education by sex (retired)</t>
   </si>
   <si>
-    <t>0d771394</t>
-  </si>
-  <si>
     <t>II.3</t>
   </si>
   <si>
     <t>GER_2t3, GER_2t3_F, GER_2t3_M</t>
   </si>
   <si>
-    <t>fae61340</t>
-  </si>
-  <si>
     <t>II.4</t>
   </si>
   <si>
     <t>GER_5t8, GER_5t8_F, GER_5t8_M</t>
   </si>
   <si>
-    <t>856d2383</t>
-  </si>
-  <si>
     <t>II.5</t>
   </si>
   <si>
-    <t>a10d1a88</t>
-  </si>
-  <si>
     <t>GER_1_gpi</t>
   </si>
   <si>
-    <t>d6c01b4c</t>
-  </si>
-  <si>
     <t>GER_2t3_gpi</t>
   </si>
   <si>
-    <t>c3061e6c</t>
-  </si>
-  <si>
     <t>Adjusted gender parity index of the gross enrolment ratios in tertiary education</t>
   </si>
   <si>
     <t>GER_5t8_gpia</t>
   </si>
   <si>
-    <t>bc8f1af8</t>
-  </si>
-  <si>
     <t>Gender parity index of the gross enrolment ratios in tertiary education (retired)</t>
   </si>
   <si>
-    <t>27d72270</t>
-  </si>
-  <si>
     <t>II.6</t>
   </si>
   <si>
@@ -652,129 +510,72 @@
     <t>education, youth</t>
   </si>
   <si>
-    <t>a00b1ab7</t>
-  </si>
-  <si>
     <t>II.7</t>
   </si>
   <si>
     <t>FTP_5t8</t>
   </si>
   <si>
-    <t xml:space="preserve">	f1e8239d</t>
-  </si>
-  <si>
     <t>II.8</t>
   </si>
   <si>
-    <t>f1e8239d</t>
-  </si>
-  <si>
     <t>Participation rate in organized learning (one year before the official primary entry age), by sex</t>
   </si>
   <si>
     <t>SE_PRE_PARTN</t>
   </si>
   <si>
-    <t>c4bf1a5f</t>
-  </si>
-  <si>
-    <t>ef9e0d38</t>
-  </si>
-  <si>
     <t>II.9</t>
   </si>
   <si>
-    <t>c5211ad2</t>
-  </si>
-  <si>
     <t>Completion rate, by sex, location and wealth quintile, primary education</t>
   </si>
   <si>
     <t>SE_TOT_CPLR</t>
   </si>
   <si>
-    <t>d42f1231</t>
-  </si>
-  <si>
     <t>Primary education completion rate (proxy), by sex (retired)</t>
   </si>
   <si>
-    <t>66c21045</t>
-  </si>
-  <si>
     <t>II.10</t>
   </si>
   <si>
-    <t>a7501ddf</t>
-  </si>
-  <si>
     <t>Completion rate, by sex, location and wealth quintile, lower secondary education</t>
   </si>
   <si>
-    <t>d2dc1714</t>
-  </si>
-  <si>
     <t>Gross graduation ratio from lower secondary education, by sex (retired)</t>
   </si>
   <si>
-    <t>b6932825</t>
-  </si>
-  <si>
     <t>II.11</t>
   </si>
   <si>
-    <t>01912ae8</t>
-  </si>
-  <si>
     <t>Proportion of youth and adults with information and communications technology (ICT) skills, by sex and type of skill</t>
   </si>
   <si>
     <t>SE_ADT_ACTS</t>
   </si>
   <si>
-    <t>18f221cb</t>
-  </si>
-  <si>
     <t>Effective transition rate from primary to secondary education (general programmes), by sex (retired)</t>
   </si>
   <si>
-    <t>229b17ac</t>
-  </si>
-  <si>
     <t>II.12</t>
   </si>
   <si>
     <t>EA_2t8_AG25t99, EA_2t8_AG25t99_F, EA_2t8_AG25t99_M, EA_2t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>42da2179</t>
-  </si>
-  <si>
     <t>EA_3t8_AG25t99, EA_3t8_AG25t99_F, EA_3t8_AG25t99_M, EA_3t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>216a2120</t>
-  </si>
-  <si>
     <t>EA_4t8_AG25t99, EA_4t8_AG25t99_F, EA_4t8_AG25t99_M, EA_4t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>56e81ed9</t>
-  </si>
-  <si>
     <t>EA_5t8_AG25t99, EA_5t8_AG25t99_F, EA_5t8_AG25t99_M, EA_5t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>339b1e69</t>
-  </si>
-  <si>
     <t>EA_1t8_AG25t99, EA_1t8_AG25t99_F, EA_1t8_AG25t99_M, EA_1t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>97572e77</t>
-  </si>
-  <si>
     <t>III.1</t>
   </si>
   <si>
@@ -787,12 +588,6 @@
     <t>health</t>
   </si>
   <si>
-    <t>ad5532a0</t>
-  </si>
-  <si>
-    <t>d3190c3e</t>
-  </si>
-  <si>
     <t>III.2</t>
   </si>
   <si>
@@ -802,84 +597,48 @@
     <t>III.3</t>
   </si>
   <si>
-    <t>75250979</t>
-  </si>
-  <si>
     <t>SH_STA_MORT</t>
   </si>
   <si>
-    <t>682508c0</t>
-  </si>
-  <si>
     <t>III.4</t>
   </si>
   <si>
-    <t>5b5c0fcb</t>
-  </si>
-  <si>
-    <t>7cdd10b8</t>
-  </si>
-  <si>
-    <t>784515d6</t>
-  </si>
-  <si>
     <t>III.5</t>
   </si>
   <si>
     <t>SH_STA_BRTC</t>
   </si>
   <si>
-    <t>c68a22f4</t>
-  </si>
-  <si>
     <t>III.6</t>
   </si>
   <si>
     <t>SH_PRV_SMOK</t>
   </si>
   <si>
-    <t>555b0f6a</t>
-  </si>
-  <si>
     <t>III.7</t>
   </si>
   <si>
-    <t>ed2520f0</t>
-  </si>
-  <si>
     <t>III.8</t>
   </si>
   <si>
     <t>SH_HIV_INCD</t>
   </si>
   <si>
-    <t>121f0e02</t>
-  </si>
-  <si>
     <t>III.9</t>
   </si>
   <si>
-    <t>c5db0b34</t>
-  </si>
-  <si>
     <t>III.10</t>
   </si>
   <si>
     <t>health, population, demography</t>
   </si>
   <si>
-    <t>bdc928a3</t>
-  </si>
-  <si>
     <t>III.11</t>
   </si>
   <si>
     <t>SH_DTH_NCOM</t>
   </si>
   <si>
-    <t>22b614cb</t>
-  </si>
-  <si>
     <t>IV.1</t>
   </si>
   <si>
@@ -892,33 +651,21 @@
     <t>power, executive, government</t>
   </si>
   <si>
-    <t>836a1d80</t>
-  </si>
-  <si>
     <t>IV.2</t>
   </si>
   <si>
-    <t>5867152a</t>
-  </si>
-  <si>
     <t>SG_GEN_PARL</t>
   </si>
   <si>
     <t>power, legislative, government</t>
   </si>
   <si>
-    <t>37241f88</t>
-  </si>
-  <si>
     <t>Proportion of elected seats held by women in deliberative bodies of local government</t>
   </si>
   <si>
     <t>SG_GEN_LOCGELS</t>
   </si>
   <si>
-    <t>6b4d10a8</t>
-  </si>
-  <si>
     <t>IV.3</t>
   </si>
   <si>
@@ -931,75 +678,48 @@
     <t>power, private sector</t>
   </si>
   <si>
-    <t>ca981746</t>
-  </si>
-  <si>
     <t>IC_GEN_MGTN</t>
   </si>
   <si>
-    <t>b3320b80</t>
-  </si>
-  <si>
     <t>IV.4</t>
   </si>
   <si>
     <t>violence, power, judiciary, government</t>
   </si>
   <si>
-    <t>5aac0815</t>
-  </si>
-  <si>
     <t>IV.5</t>
   </si>
   <si>
     <t>violence</t>
   </si>
   <si>
-    <t>ece33744</t>
-  </si>
-  <si>
     <t>IV.6</t>
   </si>
   <si>
-    <t>6bcc3b15</t>
-  </si>
-  <si>
     <t>Proportion of women who make their own informed decisions regarding sexual relations, contraceptive use and reproductive health care (% of women aged 15-49 years)</t>
   </si>
   <si>
     <t>SH_FPL_INFM</t>
   </si>
   <si>
-    <t xml:space="preserve">	bef52966</t>
-  </si>
-  <si>
     <t>Proportion of women who make their own informed decisions regarding contraceptive use (% of women aged 15-49 years)</t>
   </si>
   <si>
     <t>SH_FPL_INFMCU</t>
   </si>
   <si>
-    <t>f8af2bef</t>
-  </si>
-  <si>
     <t>Proportion of women who make their own informed decisions regarding reproductive health care (% of women aged 15-49 years)</t>
   </si>
   <si>
     <t>SH_FPL_INFMRH</t>
   </si>
   <si>
-    <t xml:space="preserve">	91c32905</t>
-  </si>
-  <si>
     <t>Proportion of women who make their own informed decisions regarding sexual relations (% of women aged 15-49 years)</t>
   </si>
   <si>
     <t>SH_FPL_INFMSR</t>
   </si>
   <si>
-    <t>a8b55125</t>
-  </si>
-  <si>
     <t>V.1</t>
   </si>
   <si>
@@ -1009,57 +729,33 @@
     <t>Human rights of women and girl children</t>
   </si>
   <si>
-    <t>be0d4226</t>
-  </si>
-  <si>
     <t>V.2</t>
   </si>
   <si>
-    <t>b51531fc</t>
-  </si>
-  <si>
     <t>Proportion of women and girls aged 15 years and older subjected to sexual violence by persons other than an intimate partner, since age 15</t>
   </si>
   <si>
-    <t>241a26cf</t>
-  </si>
-  <si>
     <t>V.3</t>
   </si>
   <si>
     <t>SH_STA_FGMS</t>
   </si>
   <si>
-    <t>c36721ab</t>
-  </si>
-  <si>
     <t>V.4</t>
   </si>
   <si>
-    <t>94021bf2</t>
-  </si>
-  <si>
     <t>SP_DYN_MRBF18</t>
   </si>
   <si>
     <t>population, demography, family, couples</t>
   </si>
   <si>
-    <t>93ff1bef</t>
-  </si>
-  <si>
     <t>SP_DYN_MRBF15</t>
   </si>
   <si>
-    <t>731e1dca</t>
-  </si>
-  <si>
     <t>V.5</t>
   </si>
   <si>
-    <t>9ebf1887</t>
-  </si>
-  <si>
     <t>Adolescent birth rate (aged 15-19 years) per 1,000 women in that age group</t>
   </si>
   <si>
@@ -1069,183 +765,75 @@
     <t>population, demography, family</t>
   </si>
   <si>
-    <t>d2261786</t>
-  </si>
-  <si>
-    <t>c8071d98</t>
-  </si>
-  <si>
-    <t>a9af20cf</t>
-  </si>
-  <si>
-    <t>a18d1dbf</t>
-  </si>
-  <si>
-    <t>edf11ece</t>
-  </si>
-  <si>
-    <t>909d1569</t>
-  </si>
-  <si>
-    <t>299b1381</t>
-  </si>
-  <si>
-    <t>1dd41836</t>
-  </si>
-  <si>
-    <t>a4f411bc</t>
-  </si>
-  <si>
-    <t>3afe1f42</t>
-  </si>
-  <si>
-    <t>2f5318b1</t>
-  </si>
-  <si>
-    <t>04c00dff</t>
-  </si>
-  <si>
-    <t>c6261123</t>
-  </si>
-  <si>
     <t>Whether or not reservation to article 16 of CEDAW (retired)</t>
   </si>
   <si>
     <t>CEDAW Status (retired)</t>
   </si>
   <si>
-    <t>3bd306b9</t>
-  </si>
-  <si>
     <t>Optional Protocol (retired)</t>
   </si>
   <si>
-    <t>62451ce4</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Compatibility with religious laws or traditional codes (retired)</t>
   </si>
   <si>
-    <t>00981365</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Elimination of discrimination (retired)</t>
   </si>
   <si>
-    <t>822110a9</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Equality in employment (retired)</t>
   </si>
   <si>
-    <t>92b51109</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Equality of nationality (retired)</t>
   </si>
   <si>
-    <t>eb9312be</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Equality to choose residence (retired)</t>
   </si>
   <si>
-    <t>70db14f7</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Equal rights in marriage and family (retired)</t>
   </si>
   <si>
-    <t>08bb0d77</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Other concerns (retired)</t>
   </si>
   <si>
-    <t>71213127</t>
-  </si>
-  <si>
-    <t>e2c9383f</t>
-  </si>
-  <si>
     <t>Legal frameworks that promote, enforce and monitor gender equality (percentage of achievement, 0 - 100) -- Area 1: overarching legal frameworks and public life</t>
   </si>
   <si>
     <t>SG_LGL_GENEQLFP</t>
   </si>
   <si>
-    <t>8adc3032</t>
-  </si>
-  <si>
     <t>Legal frameworks that promote, enforce and monitor gender equality (percentage of achievement, 0 - 100) --  Area 2: violence against women</t>
   </si>
   <si>
     <t>SG_LGL_GENEQVAW</t>
   </si>
   <si>
-    <t>579a33eb</t>
-  </si>
-  <si>
     <t>Legal frameworks that promote, enforce and monitor gender equality (percentage of achievement, 0 - 100) -- Area 3: employment and economic benefits</t>
   </si>
   <si>
     <t>SG_LGL_GENEQEMP</t>
   </si>
   <si>
-    <t>d06c2eaf</t>
-  </si>
-  <si>
     <t>Legal frameworks that promote, enforce and monitor gender equality (percentage of achievement, 0 - 100) -- Area 4: marriage and family</t>
   </si>
   <si>
     <t>SG_LGL_GENEQMAR</t>
   </si>
   <si>
-    <t>158e0e5f</t>
-  </si>
-  <si>
-    <t>b6ec11bf</t>
-  </si>
-  <si>
     <t>Existence of laws on domestic violence (retired)</t>
   </si>
   <si>
     <t>split into "Existence of laws on domestic violence", "Existence of laws on marital rape", "Existence of laws on sexual harassment"</t>
   </si>
   <si>
-    <t>d11d0c44</t>
-  </si>
-  <si>
-    <t>158d0e7a</t>
-  </si>
-  <si>
-    <t>b0e21aa2</t>
-  </si>
-  <si>
     <t>split into "Whether or not inheritance rights discriminate against widows" and "Whether or not inheritance rights discriminate against daughters"</t>
   </si>
   <si>
-    <t>cfd91785</t>
-  </si>
-  <si>
-    <t>181218af</t>
-  </si>
-  <si>
-    <t>fdb90d43</t>
-  </si>
-  <si>
     <t>Legal minimum age at marriage, by sex</t>
   </si>
   <si>
-    <t>583c1510</t>
-  </si>
-  <si>
     <t>split into "Minimum age for legal marriage - Without parental consent" and "Minimum age for legal marriage - With parental consent"</t>
   </si>
   <si>
-    <t>174413b8</t>
-  </si>
-  <si>
     <t>OLD_INDICATOR_ID</t>
   </si>
   <si>
@@ -1285,37 +873,622 @@
     <t>PDM</t>
   </si>
   <si>
-    <t>I.1q</t>
-  </si>
-  <si>
-    <t>I.2q</t>
-  </si>
-  <si>
-    <t>I.3q</t>
-  </si>
-  <si>
-    <t>I.4q</t>
-  </si>
-  <si>
-    <t>IV.1q</t>
-  </si>
-  <si>
-    <t>IV.2q</t>
-  </si>
-  <si>
-    <t>IV.3q</t>
-  </si>
-  <si>
-    <t>V.1q</t>
-  </si>
-  <si>
-    <t>V.2q</t>
-  </si>
-  <si>
-    <t>V.3q</t>
-  </si>
-  <si>
-    <t>V.4q</t>
+    <t>I98ba1fd8</t>
+  </si>
+  <si>
+    <t>Ic62a19e8</t>
+  </si>
+  <si>
+    <t>Ia7751861</t>
+  </si>
+  <si>
+    <t>I8bd915c9</t>
+  </si>
+  <si>
+    <t>I51881915</t>
+  </si>
+  <si>
+    <t>Ic273120e</t>
+  </si>
+  <si>
+    <t>I57821c41</t>
+  </si>
+  <si>
+    <t>Ib4d516a8</t>
+  </si>
+  <si>
+    <t>I0cfd2d68</t>
+  </si>
+  <si>
+    <t>Iddba1b3e</t>
+  </si>
+  <si>
+    <t>Ia3981659</t>
+  </si>
+  <si>
+    <t>I0d5c350a</t>
+  </si>
+  <si>
+    <t>Ie9834abb</t>
+  </si>
+  <si>
+    <t>I5bf21940</t>
+  </si>
+  <si>
+    <t>Ic6bf121c</t>
+  </si>
+  <si>
+    <t>Ic6982113</t>
+  </si>
+  <si>
+    <t>If922306b</t>
+  </si>
+  <si>
+    <t>I8fde19b4</t>
+  </si>
+  <si>
+    <t>Ic94311cc</t>
+  </si>
+  <si>
+    <t>I13151395</t>
+  </si>
+  <si>
+    <t>Ib8e91664</t>
+  </si>
+  <si>
+    <t>If3a22329</t>
+  </si>
+  <si>
+    <t>I2e391327</t>
+  </si>
+  <si>
+    <t>I182613ba</t>
+  </si>
+  <si>
+    <t>I456b14be</t>
+  </si>
+  <si>
+    <t>I0d771394</t>
+  </si>
+  <si>
+    <t>Ifae61340</t>
+  </si>
+  <si>
+    <t>I856d2383</t>
+  </si>
+  <si>
+    <t>I27d72270</t>
+  </si>
+  <si>
+    <t>Ia00b1ab7</t>
+  </si>
+  <si>
+    <t>I	f1e8239d</t>
+  </si>
+  <si>
+    <t>Ic4bf1a5f</t>
+  </si>
+  <si>
+    <t>Ief9e0d38</t>
+  </si>
+  <si>
+    <t>Id42f1231</t>
+  </si>
+  <si>
+    <t>I66c21045</t>
+  </si>
+  <si>
+    <t>Id2dc1714</t>
+  </si>
+  <si>
+    <t>Ib6932825</t>
+  </si>
+  <si>
+    <t>I18f221cb</t>
+  </si>
+  <si>
+    <t>I229b17ac</t>
+  </si>
+  <si>
+    <t>I97572e77</t>
+  </si>
+  <si>
+    <t>Id3190c3e</t>
+  </si>
+  <si>
+    <t>I75250979</t>
+  </si>
+  <si>
+    <t>I682508c0</t>
+  </si>
+  <si>
+    <t>I784515d6</t>
+  </si>
+  <si>
+    <t>Ic68a22f4</t>
+  </si>
+  <si>
+    <t>I555b0f6a</t>
+  </si>
+  <si>
+    <t>Ied2520f0</t>
+  </si>
+  <si>
+    <t>I121f0e02</t>
+  </si>
+  <si>
+    <t>Ic5db0b34</t>
+  </si>
+  <si>
+    <t>Ibdc928a3</t>
+  </si>
+  <si>
+    <t>I22b614cb</t>
+  </si>
+  <si>
+    <t>I836a1d80</t>
+  </si>
+  <si>
+    <t>I6b4d10a8</t>
+  </si>
+  <si>
+    <t>Ib3320b80</t>
+  </si>
+  <si>
+    <t>I5aac0815</t>
+  </si>
+  <si>
+    <t>Iece33744</t>
+  </si>
+  <si>
+    <t>Ia8b55125</t>
+  </si>
+  <si>
+    <t>Ibe0d4226</t>
+  </si>
+  <si>
+    <t>I241a26cf</t>
+  </si>
+  <si>
+    <t>Ic36721ab</t>
+  </si>
+  <si>
+    <t>I731e1dca</t>
+  </si>
+  <si>
+    <t>Id2261786</t>
+  </si>
+  <si>
+    <t>Ia18d1dbf</t>
+  </si>
+  <si>
+    <t>I79580982</t>
+  </si>
+  <si>
+    <t>Ia4f411bc</t>
+  </si>
+  <si>
+    <t>I3afe1f42</t>
+  </si>
+  <si>
+    <t>I2f5318b1</t>
+  </si>
+  <si>
+    <t>I04c00dff</t>
+  </si>
+  <si>
+    <t>Ic6261123</t>
+  </si>
+  <si>
+    <t>I71213127</t>
+  </si>
+  <si>
+    <t>I158e0e5f</t>
+  </si>
+  <si>
+    <t>Ib0e21aa2</t>
+  </si>
+  <si>
+    <t>Ifdb90d43</t>
+  </si>
+  <si>
+    <t>S997d1fdb</t>
+  </si>
+  <si>
+    <t>Sc59d1d8b</t>
+  </si>
+  <si>
+    <t>S0db81b0d</t>
+  </si>
+  <si>
+    <t>Sad2e1d29</t>
+  </si>
+  <si>
+    <t>Sd4e715ea</t>
+  </si>
+  <si>
+    <t>Sab331582</t>
+  </si>
+  <si>
+    <t>S8bd915c9</t>
+  </si>
+  <si>
+    <t>S51881915</t>
+  </si>
+  <si>
+    <t>Sc273120e</t>
+  </si>
+  <si>
+    <t>S51781c19</t>
+  </si>
+  <si>
+    <t>S5dba0fb5</t>
+  </si>
+  <si>
+    <t>S8d681d8b</t>
+  </si>
+  <si>
+    <t>S51b31cbb</t>
+  </si>
+  <si>
+    <t>Sf8fc1b6d</t>
+  </si>
+  <si>
+    <t>Sdf4d1b4b</t>
+  </si>
+  <si>
+    <t>Sa3981659</t>
+  </si>
+  <si>
+    <t>Sd5a60c11</t>
+  </si>
+  <si>
+    <t>S36180f12</t>
+  </si>
+  <si>
+    <t>S0d5c350a</t>
+  </si>
+  <si>
+    <t>Se9834abb</t>
+  </si>
+  <si>
+    <t>S2d8b1bf8</t>
+  </si>
+  <si>
+    <t>Sd1cf0c58</t>
+  </si>
+  <si>
+    <t>Sc6bf121c</t>
+  </si>
+  <si>
+    <t>S21ec2428</t>
+  </si>
+  <si>
+    <t>S6e1d24f4</t>
+  </si>
+  <si>
+    <t>Sf922306b</t>
+  </si>
+  <si>
+    <t>S8fde19b4</t>
+  </si>
+  <si>
+    <t>Sc94311cc</t>
+  </si>
+  <si>
+    <t>S13151395</t>
+  </si>
+  <si>
+    <t>Sb8e91664</t>
+  </si>
+  <si>
+    <t>Sf3a22329</t>
+  </si>
+  <si>
+    <t>Sed7f11c7</t>
+  </si>
+  <si>
+    <t>S182613ba</t>
+  </si>
+  <si>
+    <t>Scd351aff</t>
+  </si>
+  <si>
+    <t>S456b14be</t>
+  </si>
+  <si>
+    <t>S0d771394</t>
+  </si>
+  <si>
+    <t>Sfae61340</t>
+  </si>
+  <si>
+    <t>Sa10d1a88</t>
+  </si>
+  <si>
+    <t>Sd6c01b4c</t>
+  </si>
+  <si>
+    <t>Sc3061e6c</t>
+  </si>
+  <si>
+    <t>Sbc8f1af8</t>
+  </si>
+  <si>
+    <t>S27d72270</t>
+  </si>
+  <si>
+    <t>Sa00b1ab7</t>
+  </si>
+  <si>
+    <t>Sf1e8239d</t>
+  </si>
+  <si>
+    <t>Sc4bf1a5f</t>
+  </si>
+  <si>
+    <t>Sc5211ad2</t>
+  </si>
+  <si>
+    <t>Sd42f1231</t>
+  </si>
+  <si>
+    <t>Sa7501ddf</t>
+  </si>
+  <si>
+    <t>Sd2dc1714</t>
+  </si>
+  <si>
+    <t>S01912ae8</t>
+  </si>
+  <si>
+    <t>S18f221cb</t>
+  </si>
+  <si>
+    <t>S42192176</t>
+  </si>
+  <si>
+    <t>S42da2179</t>
+  </si>
+  <si>
+    <t>S216a2120</t>
+  </si>
+  <si>
+    <t>S56e81ed9</t>
+  </si>
+  <si>
+    <t>S339b1e69</t>
+  </si>
+  <si>
+    <t>S97572e77</t>
+  </si>
+  <si>
+    <t>Sad5532a0</t>
+  </si>
+  <si>
+    <t>Sd3190c3e</t>
+  </si>
+  <si>
+    <t>S75250979</t>
+  </si>
+  <si>
+    <t>S5b5c0fcb</t>
+  </si>
+  <si>
+    <t>S7cdd10b8</t>
+  </si>
+  <si>
+    <t>S784515d6</t>
+  </si>
+  <si>
+    <t>Sc68a22f4</t>
+  </si>
+  <si>
+    <t>S555b0f6a</t>
+  </si>
+  <si>
+    <t>Sed2520f0</t>
+  </si>
+  <si>
+    <t>S121f0e02</t>
+  </si>
+  <si>
+    <t>Sc5db0b34</t>
+  </si>
+  <si>
+    <t>Sbdc928a3</t>
+  </si>
+  <si>
+    <t>S22b614cb</t>
+  </si>
+  <si>
+    <t>S5867152a</t>
+  </si>
+  <si>
+    <t>S37241f88</t>
+  </si>
+  <si>
+    <t>S6b4d10a8</t>
+  </si>
+  <si>
+    <t>Sca981746</t>
+  </si>
+  <si>
+    <t>Sb3320b80</t>
+  </si>
+  <si>
+    <t>S5aac0815</t>
+  </si>
+  <si>
+    <t>S6bcc3b15</t>
+  </si>
+  <si>
+    <t>S	bef52966</t>
+  </si>
+  <si>
+    <t>Sf8af2bef</t>
+  </si>
+  <si>
+    <t>S	91c32905</t>
+  </si>
+  <si>
+    <t>Sa8b55125</t>
+  </si>
+  <si>
+    <t>Sbe0d4226</t>
+  </si>
+  <si>
+    <t>Sb51531fc</t>
+  </si>
+  <si>
+    <t>S241a26cf</t>
+  </si>
+  <si>
+    <t>S94021bf2</t>
+  </si>
+  <si>
+    <t>S93ff1bef</t>
+  </si>
+  <si>
+    <t>S9ebf1887</t>
+  </si>
+  <si>
+    <t>Sc8071d98</t>
+  </si>
+  <si>
+    <t>Sa9af20cf</t>
+  </si>
+  <si>
+    <t>Sedf11ece</t>
+  </si>
+  <si>
+    <t>S909d1569</t>
+  </si>
+  <si>
+    <t>S299b1381</t>
+  </si>
+  <si>
+    <t>S1dd41836</t>
+  </si>
+  <si>
+    <t>S79580982</t>
+  </si>
+  <si>
+    <t>Sa4f411bc</t>
+  </si>
+  <si>
+    <t>S3afe1f42</t>
+  </si>
+  <si>
+    <t>S2f5318b1</t>
+  </si>
+  <si>
+    <t>S04c00dff</t>
+  </si>
+  <si>
+    <t>Sc6261123</t>
+  </si>
+  <si>
+    <t>S17230409</t>
+  </si>
+  <si>
+    <t>S3bd306b9</t>
+  </si>
+  <si>
+    <t>S62451ce4</t>
+  </si>
+  <si>
+    <t>S00981365</t>
+  </si>
+  <si>
+    <t>S822110a9</t>
+  </si>
+  <si>
+    <t>S92b51109</t>
+  </si>
+  <si>
+    <t>Seb9312be</t>
+  </si>
+  <si>
+    <t>S70db14f7</t>
+  </si>
+  <si>
+    <t>S08bb0d77</t>
+  </si>
+  <si>
+    <t>Se2c9383f</t>
+  </si>
+  <si>
+    <t>S8adc3032</t>
+  </si>
+  <si>
+    <t>S579a33eb</t>
+  </si>
+  <si>
+    <t>Sd06c2eaf</t>
+  </si>
+  <si>
+    <t>Sb6ec11bf</t>
+  </si>
+  <si>
+    <t>S158e0e5f</t>
+  </si>
+  <si>
+    <t>Sd11d0c44</t>
+  </si>
+  <si>
+    <t>S158d0e7a</t>
+  </si>
+  <si>
+    <t>Sb0e21aa2</t>
+  </si>
+  <si>
+    <t>Scfd91785</t>
+  </si>
+  <si>
+    <t>S181218af</t>
+  </si>
+  <si>
+    <t>Sfdb90d43</t>
+  </si>
+  <si>
+    <t>S583c1510</t>
+  </si>
+  <si>
+    <t>S174413b8</t>
+  </si>
+  <si>
+    <t>QI.1</t>
+  </si>
+  <si>
+    <t>QI.2</t>
+  </si>
+  <si>
+    <t>QI.3</t>
+  </si>
+  <si>
+    <t>QI.4</t>
+  </si>
+  <si>
+    <t>QIV.1</t>
+  </si>
+  <si>
+    <t>QIV.2</t>
+  </si>
+  <si>
+    <t>QIV.3</t>
+  </si>
+  <si>
+    <t>QV.1</t>
+  </si>
+  <si>
+    <t>QV.2</t>
+  </si>
+  <si>
+    <t>QV.3</t>
+  </si>
+  <si>
+    <t>QV.4</t>
   </si>
 </sst>
 </file>
@@ -2218,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126:F127"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,22 +2419,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>407</v>
+        <v>266</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>408</v>
+        <v>267</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>409</v>
+        <v>268</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2282,16 +2455,16 @@
         <v>78</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>411</v>
+        <v>270</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>414</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -2308,13 +2481,13 @@
         <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -2323,18 +2496,18 @@
         <v>0</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P2" s="4"/>
     </row>
@@ -2352,13 +2525,13 @@
         <v>200</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>86</v>
+        <v>353</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>5</v>
@@ -2367,18 +2540,18 @@
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P3" s="4"/>
     </row>
@@ -2396,13 +2569,13 @@
         <v>300</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>88</v>
+        <v>354</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>4</v>
@@ -2411,18 +2584,18 @@
         <v>0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P4" s="4"/>
     </row>
@@ -2440,13 +2613,13 @@
         <v>400</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>92</v>
+        <v>355</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>6</v>
@@ -2458,13 +2631,13 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P5" s="4"/>
     </row>
@@ -2482,13 +2655,13 @@
         <v>500</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
@@ -2498,17 +2671,17 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P6" s="4"/>
     </row>
@@ -2526,13 +2699,13 @@
         <v>600</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>7</v>
@@ -2542,17 +2715,17 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P7" s="4"/>
     </row>
@@ -2570,13 +2743,13 @@
         <v>700</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>282</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>99</v>
+        <v>358</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>9</v>
@@ -2586,17 +2759,17 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -2613,14 +2786,14 @@
       <c r="D9" s="4">
         <v>800</v>
       </c>
-      <c r="E9" s="4">
-        <v>51881915</v>
+      <c r="E9" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="4">
-        <v>51881915</v>
+        <v>92</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>10</v>
@@ -2630,17 +2803,17 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P9" s="4"/>
     </row>
@@ -2658,13 +2831,13 @@
         <v>900</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
+        <v>284</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>11</v>
@@ -2674,17 +2847,17 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P10" s="4"/>
     </row>
@@ -2696,33 +2869,33 @@
         <v>1000</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="P11" s="4"/>
     </row>
@@ -2740,16 +2913,16 @@
         <v>1100</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>112</v>
+        <v>362</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -2758,10 +2931,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2780,13 +2953,13 @@
         <v>1200</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>116</v>
+        <v>363</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>14</v>
@@ -2796,17 +2969,17 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P13" s="4"/>
     </row>
@@ -2824,13 +2997,13 @@
         <v>1300</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>119</v>
+        <v>364</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>13</v>
@@ -2840,17 +3013,17 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P14" s="4"/>
     </row>
@@ -2868,13 +3041,13 @@
         <v>1400</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>120</v>
+        <v>365</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>12</v>
@@ -2884,17 +3057,17 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P15" s="4"/>
     </row>
@@ -2912,13 +3085,13 @@
         <v>1500</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>123</v>
+        <v>366</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>15</v>
@@ -2927,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P16" s="4"/>
     </row>
@@ -2954,36 +3127,36 @@
         <v>1600</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -3000,13 +3173,13 @@
         <v>1700</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>130</v>
+        <v>368</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>16</v>
@@ -3015,18 +3188,18 @@
         <v>0</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P18" s="4"/>
     </row>
@@ -3042,33 +3215,33 @@
         <v>1800</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P19" s="4"/>
     </row>
@@ -3086,13 +3259,13 @@
         <v>1900</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>17</v>
@@ -3101,18 +3274,18 @@
         <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="P20" s="4"/>
     </row>
@@ -3128,16 +3301,16 @@
         <v>2000</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -3146,10 +3319,10 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -3162,30 +3335,30 @@
         <v>2100</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>143</v>
+        <v>372</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -3202,16 +3375,16 @@
         <v>2200</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>146</v>
+        <v>373</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
@@ -3220,10 +3393,10 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -3242,13 +3415,13 @@
         <v>2300</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>18</v>
@@ -3258,17 +3431,17 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P24" s="4"/>
     </row>
@@ -3280,30 +3453,30 @@
         <v>2400</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -3316,30 +3489,30 @@
         <v>2500</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>156</v>
+        <v>376</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -3356,16 +3529,16 @@
         <v>2600</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -3374,13 +3547,13 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P27" s="4"/>
     </row>
@@ -3392,30 +3565,30 @@
         <v>2700</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>160</v>
+        <v>378</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3432,16 +3605,16 @@
         <v>2800</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>164</v>
+        <v>379</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -3450,10 +3623,10 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3471,14 +3644,14 @@
       <c r="D30" s="4">
         <v>2900</v>
       </c>
-      <c r="E30" s="4">
-        <v>13151395</v>
+      <c r="E30" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="4">
-        <v>13151395</v>
+        <v>130</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>19</v>
@@ -3490,13 +3663,13 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="P30" s="4"/>
     </row>
@@ -3514,13 +3687,13 @@
         <v>3000</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>167</v>
+        <v>381</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>20</v>
@@ -3529,18 +3702,18 @@
         <v>0</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="P31" s="4"/>
     </row>
@@ -3556,16 +3729,16 @@
         <v>3100</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>170</v>
+        <v>382</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="I32" s="4">
         <v>1</v>
@@ -3574,10 +3747,10 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -3596,13 +3769,13 @@
         <v>3200</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>21</v>
@@ -3613,16 +3786,16 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P33" s="4"/>
     </row>
@@ -3634,16 +3807,16 @@
         <v>3300</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>179</v>
+        <v>384</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="I34" s="4">
         <v>0</v>
@@ -3651,13 +3824,13 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -3670,16 +3843,16 @@
         <v>3400</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="I35" s="4">
         <v>0</v>
@@ -3687,13 +3860,13 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -3712,16 +3885,16 @@
         <v>3500</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>186</v>
+        <v>386</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="I36" s="4">
         <v>1</v>
@@ -3730,10 +3903,10 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -3752,13 +3925,13 @@
         <v>3600</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>188</v>
+        <v>387</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>22</v>
@@ -3769,13 +3942,13 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -3794,13 +3967,13 @@
         <v>3700</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>191</v>
+        <v>388</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>23</v>
@@ -3811,13 +3984,13 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -3836,13 +4009,13 @@
         <v>3800</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>196</v>
+        <v>389</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>24</v>
@@ -3853,13 +4026,13 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -3878,13 +4051,13 @@
         <v>3900</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>198</v>
+        <v>390</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>25</v>
@@ -3895,13 +4068,13 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -3918,16 +4091,16 @@
         <v>4000</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>200</v>
+        <v>391</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I41" s="4">
         <v>0</v>
@@ -3935,13 +4108,13 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3960,16 +4133,16 @@
         <v>4100</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>203</v>
+        <v>392</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="I42" s="4">
         <v>1</v>
@@ -3978,10 +4151,10 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -4000,16 +4173,16 @@
         <v>4200</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>205</v>
+        <v>393</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="I43" s="4">
         <v>1</v>
@@ -4018,13 +4191,13 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="P43" s="4"/>
     </row>
@@ -4042,13 +4215,13 @@
         <v>4300</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>209</v>
+        <v>394</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>26</v>
@@ -4059,16 +4232,16 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="P44" s="4"/>
     </row>
@@ -4080,30 +4253,30 @@
         <v>4400</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>214</v>
+        <v>395</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="I45" s="4">
         <v>0</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -4122,13 +4295,13 @@
         <v>4500</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>217</v>
+        <v>396</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>27</v>
@@ -4140,10 +4313,10 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -4156,30 +4329,30 @@
         <v>4600</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="I47" s="4">
         <v>0</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -4198,16 +4371,16 @@
         <v>4700</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>223</v>
+        <v>312</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>223</v>
+        <v>398</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="I48" s="4">
         <v>1</v>
@@ -4216,13 +4389,13 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P48" s="4"/>
     </row>
@@ -4234,30 +4407,30 @@
         <v>4800</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>227</v>
+        <v>399</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="I49" s="4">
         <v>0</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -4276,16 +4449,16 @@
         <v>4900</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>229</v>
+        <v>400</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="I50" s="4">
         <v>1</v>
@@ -4294,13 +4467,13 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P50" s="4"/>
     </row>
@@ -4312,30 +4485,30 @@
         <v>5000</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>233</v>
+        <v>401</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="I51" s="4">
         <v>0</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4354,16 +4527,16 @@
         <v>5100</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>236</v>
+        <v>402</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="I52" s="4">
         <v>1</v>
@@ -4372,13 +4545,13 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P52" s="4"/>
     </row>
@@ -4396,13 +4569,13 @@
         <v>5200</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G53" s="4">
-        <v>42192176</v>
+        <v>174</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>28</v>
@@ -4413,16 +4586,16 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P53" s="4"/>
     </row>
@@ -4440,13 +4613,13 @@
         <v>5300</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>241</v>
+        <v>404</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>32</v>
@@ -4457,16 +4630,16 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P54" s="4"/>
     </row>
@@ -4484,13 +4657,13 @@
         <v>5400</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>243</v>
+        <v>405</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>29</v>
@@ -4501,16 +4674,16 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P55" s="4"/>
     </row>
@@ -4528,13 +4701,13 @@
         <v>5500</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>245</v>
+        <v>406</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>31</v>
@@ -4545,16 +4718,16 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P56" s="4"/>
     </row>
@@ -4572,13 +4745,13 @@
         <v>5600</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>247</v>
+        <v>407</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>30</v>
@@ -4589,16 +4762,16 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P57" s="4"/>
     </row>
@@ -4616,13 +4789,13 @@
         <v>5700</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>249</v>
+        <v>408</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>33</v>
@@ -4631,18 +4804,18 @@
         <v>0</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="P58" s="4"/>
     </row>
@@ -4660,13 +4833,13 @@
         <v>5800</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>254</v>
+        <v>409</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>34</v>
@@ -4678,13 +4851,13 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="P59" s="4"/>
     </row>
@@ -4702,13 +4875,13 @@
         <v>5900</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>35</v>
@@ -4717,18 +4890,18 @@
         <v>0</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="P60" s="4"/>
     </row>
@@ -4745,14 +4918,14 @@
       <c r="D61" s="4">
         <v>6000</v>
       </c>
-      <c r="E61" s="4">
-        <v>75250979</v>
+      <c r="E61" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>259</v>
+        <v>411</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>36</v>
@@ -4761,18 +4934,18 @@
         <v>0</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="P61" s="4"/>
     </row>
@@ -4790,13 +4963,13 @@
         <v>6100</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>37</v>
@@ -4808,10 +4981,10 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4830,13 +5003,13 @@
         <v>6200</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>264</v>
+        <v>413</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>38</v>
@@ -4848,10 +5021,10 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4870,13 +5043,13 @@
         <v>6300</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>39</v>
@@ -4885,15 +5058,15 @@
         <v>0</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -4912,13 +5085,13 @@
         <v>6400</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>268</v>
+        <v>415</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>40</v>
@@ -4927,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="P65" s="4"/>
     </row>
@@ -4956,13 +5129,13 @@
         <v>6500</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>271</v>
+        <v>416</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>41</v>
@@ -4974,13 +5147,13 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="P66" s="4"/>
     </row>
@@ -4998,13 +5171,13 @@
         <v>6600</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>42</v>
@@ -5013,18 +5186,18 @@
         <v>0</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="P67" s="4"/>
     </row>
@@ -5042,13 +5215,13 @@
         <v>6700</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>276</v>
+        <v>418</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>43</v>
@@ -5060,13 +5233,13 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="P68" s="4"/>
     </row>
@@ -5084,13 +5257,13 @@
         <v>6800</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>278</v>
+        <v>419</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>44</v>
@@ -5102,13 +5275,13 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="P69" s="4"/>
     </row>
@@ -5126,13 +5299,13 @@
         <v>6900</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>281</v>
+        <v>420</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>45</v>
@@ -5141,18 +5314,18 @@
         <v>0</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="P70" s="4"/>
     </row>
@@ -5170,16 +5343,16 @@
         <v>7000</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>284</v>
+        <v>421</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="I71" s="4">
         <v>0</v>
@@ -5188,13 +5361,13 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="P71" s="4"/>
     </row>
@@ -5212,13 +5385,13 @@
         <v>7100</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>291</v>
+        <v>422</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>46</v>
@@ -5227,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="P72" s="4"/>
     </row>
@@ -5254,33 +5427,33 @@
         <v>7200</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="I73" s="4">
         <v>0</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="P73" s="4"/>
     </row>
@@ -5298,13 +5471,13 @@
         <v>7300</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>297</v>
+        <v>424</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>47</v>
@@ -5313,20 +5486,20 @@
         <v>0</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="P74" s="4"/>
     </row>
@@ -5344,13 +5517,13 @@
         <v>7400</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>48</v>
@@ -5359,18 +5532,18 @@
         <v>0</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="P75" s="4"/>
     </row>
@@ -5388,13 +5561,13 @@
         <v>7500</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>49</v>
@@ -5406,13 +5579,13 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="P76" s="4"/>
     </row>
@@ -5430,13 +5603,13 @@
         <v>7600</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>50</v>
@@ -5448,13 +5621,13 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="P77" s="4"/>
     </row>
@@ -5466,30 +5639,30 @@
         <v>7700</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>312</v>
+        <v>428</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="I78" s="4">
         <v>0</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
@@ -5502,30 +5675,30 @@
         <v>7800</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>315</v>
+        <v>429</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="I79" s="4">
         <v>0</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -5538,30 +5711,30 @@
         <v>7900</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>318</v>
+        <v>430</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="I80" s="4">
         <v>0</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
@@ -5574,30 +5747,30 @@
         <v>8000</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="I81" s="4">
         <v>0</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -5616,13 +5789,13 @@
         <v>8100</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>325</v>
+        <v>228</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>51</v>
@@ -5631,18 +5804,18 @@
         <v>0</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="P82" s="4"/>
     </row>
@@ -5660,13 +5833,13 @@
         <v>8200</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>328</v>
+        <v>433</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>52</v>
@@ -5678,13 +5851,13 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="P83" s="4"/>
     </row>
@@ -5696,16 +5869,16 @@
         <v>8300</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="I84" s="4">
         <v>0</v>
@@ -5714,13 +5887,13 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="P84" s="4"/>
     </row>
@@ -5738,13 +5911,13 @@
         <v>8400</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>53</v>
@@ -5753,18 +5926,18 @@
         <v>0</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="P85" s="4"/>
     </row>
@@ -5782,13 +5955,13 @@
         <v>8500</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>337</v>
+        <v>436</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>54</v>
@@ -5797,18 +5970,18 @@
         <v>0</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="P86" s="4"/>
     </row>
@@ -5826,13 +5999,13 @@
         <v>8600</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>340</v>
+        <v>437</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>55</v>
@@ -5841,18 +6014,18 @@
         <v>0</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>341</v>
+        <v>238</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="P87" s="4"/>
     </row>
@@ -5870,33 +6043,33 @@
         <v>8700</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>343</v>
+        <v>239</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>345</v>
+        <v>240</v>
       </c>
       <c r="I88" s="4">
         <v>0</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>346</v>
+        <v>241</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>347</v>
+        <v>242</v>
       </c>
       <c r="P88" s="4"/>
     </row>
@@ -5914,13 +6087,13 @@
         <v>8800</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>61</v>
@@ -5932,13 +6105,13 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P89" s="4"/>
     </row>
@@ -5956,13 +6129,13 @@
         <v>8900</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>62</v>
@@ -5974,13 +6147,13 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P90" s="4"/>
     </row>
@@ -5998,13 +6171,13 @@
         <v>9000</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>352</v>
+        <v>441</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>63</v>
@@ -6016,13 +6189,13 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P91" s="4"/>
     </row>
@@ -6040,13 +6213,13 @@
         <v>9100</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>64</v>
@@ -6058,13 +6231,13 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P92" s="4"/>
     </row>
@@ -6082,13 +6255,13 @@
         <v>9200</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>354</v>
+        <v>443</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>65</v>
@@ -6100,13 +6273,13 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P93" s="4"/>
     </row>
@@ -6124,13 +6297,13 @@
         <v>9300</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>66</v>
@@ -6142,13 +6315,13 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P94" s="4"/>
     </row>
@@ -6165,14 +6338,14 @@
       <c r="D95" s="4">
         <v>9400</v>
       </c>
-      <c r="E95" s="4">
-        <v>79580982</v>
+      <c r="E95" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="G95" s="4">
-        <v>79580982</v>
+        <v>476</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>67</v>
@@ -6184,13 +6357,13 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P95" s="4"/>
     </row>
@@ -6208,13 +6381,13 @@
         <v>9500</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>68</v>
@@ -6226,13 +6399,13 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P96" s="4"/>
     </row>
@@ -6250,13 +6423,13 @@
         <v>9600</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>69</v>
@@ -6268,13 +6441,13 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="P97" s="4"/>
     </row>
@@ -6292,13 +6465,13 @@
         <v>9700</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>358</v>
+        <v>448</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>70</v>
@@ -6310,13 +6483,13 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="P98" s="4"/>
     </row>
@@ -6334,13 +6507,13 @@
         <v>9800</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>71</v>
@@ -6352,10 +6525,10 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
@@ -6372,16 +6545,16 @@
         <v>9900</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c r="I100" s="4">
         <v>1</v>
@@ -6390,10 +6563,10 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -6412,16 +6585,16 @@
         <v>10000</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G101" s="4">
-        <v>17230409</v>
+        <v>481</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="I101" s="4">
         <v>1</v>
@@ -6430,10 +6603,10 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
@@ -6452,16 +6625,16 @@
         <v>10100</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>364</v>
+        <v>245</v>
       </c>
       <c r="I102" s="4">
         <v>1</v>
@@ -6470,10 +6643,10 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
@@ -6492,16 +6665,16 @@
         <v>10200</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>365</v>
+        <v>453</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="I103" s="4">
         <v>1</v>
@@ -6510,10 +6683,10 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
@@ -6532,16 +6705,16 @@
         <v>10300</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="I104" s="4">
         <v>1</v>
@@ -6550,10 +6723,10 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
@@ -6572,16 +6745,16 @@
         <v>10400</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>370</v>
+        <v>248</v>
       </c>
       <c r="I105" s="4">
         <v>1</v>
@@ -6590,10 +6763,10 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -6612,16 +6785,16 @@
         <v>10500</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>371</v>
+        <v>456</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="I106" s="4">
         <v>1</v>
@@ -6630,10 +6803,10 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
@@ -6652,16 +6825,16 @@
         <v>10600</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>374</v>
+        <v>250</v>
       </c>
       <c r="I107" s="4">
         <v>1</v>
@@ -6670,10 +6843,10 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -6692,16 +6865,16 @@
         <v>10700</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="I108" s="4">
         <v>1</v>
@@ -6710,10 +6883,10 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
@@ -6732,16 +6905,16 @@
         <v>10800</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="I109" s="4">
         <v>1</v>
@@ -6750,10 +6923,10 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
@@ -6766,30 +6939,30 @@
         <v>10900</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>381</v>
+        <v>253</v>
       </c>
       <c r="I110" s="4">
         <v>0</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
@@ -6802,30 +6975,30 @@
         <v>11000</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>384</v>
+        <v>255</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -6838,30 +7011,30 @@
         <v>11100</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>387</v>
+        <v>257</v>
       </c>
       <c r="I112" s="4">
         <v>0</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
@@ -6874,30 +7047,30 @@
         <v>11200</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>389</v>
+        <v>463</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>390</v>
+        <v>259</v>
       </c>
       <c r="I113" s="4">
         <v>0</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>391</v>
+        <v>260</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
@@ -6914,16 +7087,16 @@
         <v>11300</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>394</v>
+        <v>261</v>
       </c>
       <c r="I114" s="4">
         <v>1</v>
@@ -6932,14 +7105,14 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O114" s="4"/>
       <c r="P114" s="4" t="s">
-        <v>395</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -6956,13 +7129,13 @@
         <v>11400</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>72</v>
@@ -6974,10 +7147,10 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
@@ -6996,13 +7169,13 @@
         <v>11500</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>396</v>
+        <v>466</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>73</v>
@@ -7014,10 +7187,10 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
@@ -7036,13 +7209,13 @@
         <v>11600</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>397</v>
+        <v>467</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>74</v>
@@ -7054,10 +7227,10 @@
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -7074,13 +7247,13 @@
         <v>11700</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>56</v>
@@ -7092,16 +7265,16 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -7118,13 +7291,13 @@
         <v>11800</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>57</v>
@@ -7136,13 +7309,13 @@
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="P119" s="4"/>
     </row>
@@ -7160,13 +7333,13 @@
         <v>11900</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>58</v>
@@ -7178,13 +7351,13 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="P120" s="4"/>
     </row>
@@ -7200,16 +7373,16 @@
         <v>12000</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>402</v>
+        <v>471</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="I121" s="4">
         <v>1</v>
@@ -7218,10 +7391,10 @@
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
@@ -7240,13 +7413,13 @@
         <v>12100</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>60</v>
@@ -7258,14 +7431,14 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O122" s="4"/>
       <c r="P122" s="4" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -7282,13 +7455,13 @@
         <v>12200</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>59</v>
@@ -7300,10 +7473,10 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>

--- a/master_data/catalog_series_old_and_new.xlsx
+++ b/master_data/catalog_series_old_and_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E7CFE-09CB-464D-81E5-BCEDE69117BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD7234F-1E20-40E0-81D4-6AA09AE8B06C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DE7C0272-EBF5-4B5F-81CF-57D56F39C38E}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="508">
   <si>
     <t>INDICATOR_ID</t>
   </si>
@@ -120,15 +120,9 @@
     <t>MINSET_SERIES_pre2021</t>
   </si>
   <si>
-    <t>98ba1fd8</t>
-  </si>
-  <si>
     <t>I.1</t>
   </si>
   <si>
-    <t>997d1fdb</t>
-  </si>
-  <si>
     <t>Average number of hours spent on domestic chores and care work, by sex, age and location</t>
   </si>
   <si>
@@ -141,45 +135,27 @@
     <t>economy, work, well-being</t>
   </si>
   <si>
-    <t>c59d1d8b</t>
-  </si>
-  <si>
     <t>Average number of hours spent on unpaid domestic chores, by sex, age and location</t>
   </si>
   <si>
     <t>SL_DOM_TSPDDC</t>
   </si>
   <si>
-    <t>0db81b0d</t>
-  </si>
-  <si>
     <t>Average number of hours spent on unpaid care work, by sex, age and location</t>
   </si>
   <si>
     <t>SL_DOM_TSPDCW</t>
   </si>
   <si>
-    <t>c62a19e8</t>
-  </si>
-  <si>
     <t>I.2</t>
   </si>
   <si>
-    <t>ad2e1d29</t>
-  </si>
-  <si>
     <t>Average number of hours spent on total work combined (total work burden), by sex</t>
   </si>
   <si>
-    <t>a7751861</t>
-  </si>
-  <si>
     <t>I.3</t>
   </si>
   <si>
-    <t>d4e715ea</t>
-  </si>
-  <si>
     <t>Labour force participation rate for persons aged 15-24, by sex</t>
   </si>
   <si>
@@ -189,15 +165,9 @@
     <t>economy, work, rights</t>
   </si>
   <si>
-    <t>ab331582</t>
-  </si>
-  <si>
     <t>Labour force participation rate for persons aged 15+, by sex</t>
   </si>
   <si>
-    <t>8bd915c9</t>
-  </si>
-  <si>
     <t>I.4</t>
   </si>
   <si>
@@ -213,9 +183,6 @@
     <t>Proportion of employed who are contributing family workers, by sex</t>
   </si>
   <si>
-    <t>c273120e</t>
-  </si>
-  <si>
     <t>I.6</t>
   </si>
   <si>
@@ -240,24 +207,12 @@
     <t>economy, work, rights, youth</t>
   </si>
   <si>
-    <t>b4d516a8</t>
-  </si>
-  <si>
-    <t>5dba0fb5</t>
-  </si>
-  <si>
     <t>Percentage of firms owned by women, by size (retired)</t>
   </si>
   <si>
-    <t>0cfd2d68</t>
-  </si>
-  <si>
     <t>I.8</t>
   </si>
   <si>
-    <t>8d681d8b</t>
-  </si>
-  <si>
     <t>Percentage distribution of employed population in agricultural sector, by sex</t>
   </si>
   <si>
@@ -267,36 +222,21 @@
     <t>economy, employment</t>
   </si>
   <si>
-    <t>51b31cbb</t>
-  </si>
-  <si>
     <t>Percentage distribution of employed population in industrial sector, by sex</t>
   </si>
   <si>
-    <t>f8fc1b6d</t>
-  </si>
-  <si>
     <t>Percentage distribution of employed population in service sector, by sex</t>
   </si>
   <si>
-    <t>ddba1b3e</t>
-  </si>
-  <si>
     <t>I.9</t>
   </si>
   <si>
-    <t>df4d1b4b</t>
-  </si>
-  <si>
     <t>Proportion of informal employment in non-agriculture employment, by sex</t>
   </si>
   <si>
     <t>SL_ISV_IFEM</t>
   </si>
   <si>
-    <t>a3981659</t>
-  </si>
-  <si>
     <t>Unemployment rate, by sex, age and persons with disabilities (retired)</t>
   </si>
   <si>
@@ -309,24 +249,15 @@
     <t>I.10</t>
   </si>
   <si>
-    <t>d5a60c11</t>
-  </si>
-  <si>
     <t>Unemployment rate, by sex and age</t>
   </si>
   <si>
-    <t>36180f12</t>
-  </si>
-  <si>
     <t>Unemployment rate, by sex and disability</t>
   </si>
   <si>
     <t>SL_TLF_UEMDIS</t>
   </si>
   <si>
-    <t>0d5c350a</t>
-  </si>
-  <si>
     <t>I.11</t>
   </si>
   <si>
@@ -339,24 +270,15 @@
     <t>economy, assets</t>
   </si>
   <si>
-    <t>e9834abb</t>
-  </si>
-  <si>
     <t>I.12</t>
   </si>
   <si>
     <t>Proportion of total agricultural population with ownership or secure rights over agricultural land, by sex; and (b) share of women among owners or rights-bearers of agricultural land, by type of tenure</t>
   </si>
   <si>
-    <t>5bf21940</t>
-  </si>
-  <si>
     <t>I.13</t>
   </si>
   <si>
-    <t>2d8b1bf8</t>
-  </si>
-  <si>
     <t>Average hourly earnings of employees by sex and occupation (local currency)</t>
   </si>
   <si>
@@ -369,9 +291,6 @@
     <t>Gender gap in wages, by occupation</t>
   </si>
   <si>
-    <t>c6bf121c</t>
-  </si>
-  <si>
     <t>I.14</t>
   </si>
   <si>
@@ -402,9 +321,6 @@
     <t>Prime-age employment-to-population ratio by sex, household type and presence of children under age 6</t>
   </si>
   <si>
-    <t>f922306b</t>
-  </si>
-  <si>
     <t>Employment rate of persons aged 25-49 with a child under age 3 living in a household and with no children living in the household, by sex (retired)</t>
   </si>
   <si>
@@ -420,9 +336,6 @@
     <t>SI_POV_EMP1</t>
   </si>
   <si>
-    <t>c94311cc</t>
-  </si>
-  <si>
     <t>Proportion of children under age 3 in formal care (retired)</t>
   </si>
   <si>
@@ -432,9 +345,6 @@
     <t>Proportion of individuals using the Internet, by sex</t>
   </si>
   <si>
-    <t>b8e91664</t>
-  </si>
-  <si>
     <t>I.18</t>
   </si>
   <si>
@@ -444,21 +354,12 @@
     <t>IT_MOB_OWN</t>
   </si>
   <si>
-    <t>f3a22329</t>
-  </si>
-  <si>
     <t>Proportion of households with access to mass media (radio, TV, Internet), by sex of household head (retired)</t>
   </si>
   <si>
-    <t>2e391327</t>
-  </si>
-  <si>
     <t>II.9</t>
   </si>
   <si>
-    <t>ed7f11c7</t>
-  </si>
-  <si>
     <t>Youth literacy rate of persons (15-24 years), by sex</t>
   </si>
   <si>
@@ -483,15 +384,9 @@
     <t>NERT_1_CP, NERT_1_F_CP, NERT_1_M_CP</t>
   </si>
   <si>
-    <t>456b14be</t>
-  </si>
-  <si>
     <t>Adjusted net enrolment rate in primary education by sex (retired)</t>
   </si>
   <si>
-    <t>0d771394</t>
-  </si>
-  <si>
     <t>II.3</t>
   </si>
   <si>
@@ -501,9 +396,6 @@
     <t>GER_2t3, GER_2t3_F, GER_2t3_M</t>
   </si>
   <si>
-    <t>fae61340</t>
-  </si>
-  <si>
     <t>II.4</t>
   </si>
   <si>
@@ -513,54 +405,33 @@
     <t>GER_5t8, GER_5t8_F, GER_5t8_M</t>
   </si>
   <si>
-    <t>856d2383</t>
-  </si>
-  <si>
-    <t>a10d1a88</t>
-  </si>
-  <si>
     <t>Gender parity index of the gross enrolment ratios in primary education (retired)</t>
   </si>
   <si>
     <t>GER_1_gpi</t>
   </si>
   <si>
-    <t>d6c01b4c</t>
-  </si>
-  <si>
     <t>Gender parity index of the gross enrolment ratios in secondary education (retired)</t>
   </si>
   <si>
     <t>GER_2t3_gpi</t>
   </si>
   <si>
-    <t>c3061e6c</t>
-  </si>
-  <si>
     <t>Adjusted gender parity index of the gross enrolment ratios in tertiary education (retired)</t>
   </si>
   <si>
     <t>GER_5t8_gpia</t>
   </si>
   <si>
-    <t>bc8f1af8</t>
-  </si>
-  <si>
     <t>Gender parity index of the gross enrolment ratios in tertiary education (retired)</t>
   </si>
   <si>
-    <t>27d72270</t>
-  </si>
-  <si>
     <t>Share of female science, technology, engineering and mathematics graduates at tertiary level (retired)</t>
   </si>
   <si>
     <t>education, youth</t>
   </si>
   <si>
-    <t>a00b1ab7</t>
-  </si>
-  <si>
     <t>II.8</t>
   </si>
   <si>
@@ -585,9 +456,6 @@
     <t>SE_PRE_PARTN</t>
   </si>
   <si>
-    <t>c4bf1a5f</t>
-  </si>
-  <si>
     <t>Adjusted net intake rate to the first grade of primary education, by sex (retired)</t>
   </si>
   <si>
@@ -606,9 +474,6 @@
     <t>SE_TOT_CPLR</t>
   </si>
   <si>
-    <t>d42f1231</t>
-  </si>
-  <si>
     <t>Primary education completion rate (proxy), by sex (retired)</t>
   </si>
   <si>
@@ -624,9 +489,6 @@
     <t>Completion rate, by sex, location and wealth quintile, lower secondary education</t>
   </si>
   <si>
-    <t>d2dc1714</t>
-  </si>
-  <si>
     <t>Gross graduation ratio from lower secondary education, by sex (retired)</t>
   </si>
   <si>
@@ -660,15 +522,9 @@
     <t>SE_ADT_ACTS</t>
   </si>
   <si>
-    <t>18f221cb</t>
-  </si>
-  <si>
     <t>Effective transition rate from primary to secondary education (general programmes), by sex (retired)</t>
   </si>
   <si>
-    <t>229b17ac</t>
-  </si>
-  <si>
     <t>II.11</t>
   </si>
   <si>
@@ -678,45 +534,30 @@
     <t>EA_2t8_AG25t99, EA_2t8_AG25t99_F, EA_2t8_AG25t99_M, EA_2t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>42da2179</t>
-  </si>
-  <si>
     <t>Educational attainment (minimum upper secondary) of the population aged 25 and older, by sex</t>
   </si>
   <si>
     <t>EA_3t8_AG25t99, EA_3t8_AG25t99_F, EA_3t8_AG25t99_M, EA_3t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>216a2120</t>
-  </si>
-  <si>
     <t>Educational attainment (minimum post-secondary) of the population aged 25 and older, by sex</t>
   </si>
   <si>
     <t>EA_4t8_AG25t99, EA_4t8_AG25t99_F, EA_4t8_AG25t99_M, EA_4t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>56e81ed9</t>
-  </si>
-  <si>
     <t>Educational attainment (minimum tertiary) of the population aged 25 and older, by sex</t>
   </si>
   <si>
     <t>EA_5t8_AG25t99, EA_5t8_AG25t99_F, EA_5t8_AG25t99_M, EA_5t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>339b1e69</t>
-  </si>
-  <si>
     <t>Educational attainment (minimum primary) of the population aged 25 and older, by sex</t>
   </si>
   <si>
     <t>EA_1t8_AG25t99, EA_1t8_AG25t99_F, EA_1t8_AG25t99_M, EA_1t8_AG25t99_gpia</t>
   </si>
   <si>
-    <t>97572e77</t>
-  </si>
-  <si>
     <t>III.1</t>
   </si>
   <si>
@@ -732,15 +573,9 @@
     <t>health</t>
   </si>
   <si>
-    <t>ad5532a0</t>
-  </si>
-  <si>
     <t>Proportion of women of reproductive age (aged 15-49 years) who have their need for family planning satisfied with modern methods: estimates</t>
   </si>
   <si>
-    <t>d3190c3e</t>
-  </si>
-  <si>
     <t>III.2</t>
   </si>
   <si>
@@ -753,36 +588,21 @@
     <t>III.3</t>
   </si>
   <si>
-    <t>75250979</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio</t>
   </si>
   <si>
     <t>SH_STA_MORT</t>
   </si>
   <si>
-    <t>682508c0</t>
-  </si>
-  <si>
     <t>III.4</t>
   </si>
   <si>
-    <t>5b5c0fcb</t>
-  </si>
-  <si>
     <t>Antenatal care coverage, at least one visit</t>
   </si>
   <si>
-    <t>7cdd10b8</t>
-  </si>
-  <si>
     <t>Antenatal care coverage, at least four visits</t>
   </si>
   <si>
-    <t>784515d6</t>
-  </si>
-  <si>
     <t>III.5</t>
   </si>
   <si>
@@ -792,9 +612,6 @@
     <t>SH_STA_BRTC</t>
   </si>
   <si>
-    <t>c68a22f4</t>
-  </si>
-  <si>
     <t>III.6</t>
   </si>
   <si>
@@ -804,18 +621,12 @@
     <t>SH_PRV_SMOK</t>
   </si>
   <si>
-    <t>555b0f6a</t>
-  </si>
-  <si>
     <t>III.7</t>
   </si>
   <si>
     <t>Proportion of adults who are obese, by sex</t>
   </si>
   <si>
-    <t>ed2520f0</t>
-  </si>
-  <si>
     <t>III.8</t>
   </si>
   <si>
@@ -825,18 +636,12 @@
     <t>SH_HIV_INCD</t>
   </si>
   <si>
-    <t>121f0e02</t>
-  </si>
-  <si>
     <t>III.9</t>
   </si>
   <si>
     <t>Access to anti-retroviral drug, by sex</t>
   </si>
   <si>
-    <t>c5db0b34</t>
-  </si>
-  <si>
     <t>III.10</t>
   </si>
   <si>
@@ -846,9 +651,6 @@
     <t>health, population, demography</t>
   </si>
   <si>
-    <t>bdc928a3</t>
-  </si>
-  <si>
     <t>III.11</t>
   </si>
   <si>
@@ -858,9 +660,6 @@
     <t>SH_DTH_NCOM</t>
   </si>
   <si>
-    <t>22b614cb</t>
-  </si>
-  <si>
     <t>IV.1</t>
   </si>
   <si>
@@ -873,15 +672,9 @@
     <t>power, executive, government</t>
   </si>
   <si>
-    <t>836a1d80</t>
-  </si>
-  <si>
     <t>IV.2</t>
   </si>
   <si>
-    <t>5867152a</t>
-  </si>
-  <si>
     <t>Proportion of seats held by women in national parliament</t>
   </si>
   <si>
@@ -891,18 +684,12 @@
     <t>power, legislative, government</t>
   </si>
   <si>
-    <t>37241f88</t>
-  </si>
-  <si>
     <t>Proportion of elected seats held by women in deliberative bodies of local government</t>
   </si>
   <si>
     <t>SG_GEN_LOCGELS</t>
   </si>
   <si>
-    <t>6b4d10a8</t>
-  </si>
-  <si>
     <t>IV.3</t>
   </si>
   <si>
@@ -918,18 +705,12 @@
     <t>power, private sector</t>
   </si>
   <si>
-    <t>ca981746</t>
-  </si>
-  <si>
     <t>Proportion of women in senior and middle management positions</t>
   </si>
   <si>
     <t>IC_GEN_MGTN</t>
   </si>
   <si>
-    <t>b3320b80</t>
-  </si>
-  <si>
     <t>IV.4</t>
   </si>
   <si>
@@ -939,9 +720,6 @@
     <t>violence, power, judiciary, government</t>
   </si>
   <si>
-    <t>5aac0815</t>
-  </si>
-  <si>
     <t>IV.5</t>
   </si>
   <si>
@@ -993,9 +771,6 @@
     <t>SH_FPL_INFMSR</t>
   </si>
   <si>
-    <t>a8b55125</t>
-  </si>
-  <si>
     <t>V.1</t>
   </si>
   <si>
@@ -1005,24 +780,15 @@
     <t>Human rights of women and girl children</t>
   </si>
   <si>
-    <t>be0d4226</t>
-  </si>
-  <si>
     <t>V.2</t>
   </si>
   <si>
     <t>Proportion of women and girls aged 15 years and older subjected to sexual violence by persons other than an intimate partner in the previous 12 months, by age and place of occurrence</t>
   </si>
   <si>
-    <t>b51531fc</t>
-  </si>
-  <si>
     <t>Proportion of women and girls aged 15 years and older subjected to sexual violence by persons other than an intimate partner, since age 15</t>
   </si>
   <si>
-    <t>241a26cf</t>
-  </si>
-  <si>
     <t>V.3</t>
   </si>
   <si>
@@ -1032,15 +798,9 @@
     <t>SH_STA_FGMS</t>
   </si>
   <si>
-    <t>c36721ab</t>
-  </si>
-  <si>
     <t>V.4</t>
   </si>
   <si>
-    <t>94021bf2</t>
-  </si>
-  <si>
     <t>Proportion of women aged 20-24 years who were married or in a union before age 18</t>
   </si>
   <si>
@@ -1050,24 +810,15 @@
     <t>population, demography, family, couples</t>
   </si>
   <si>
-    <t>93ff1bef</t>
-  </si>
-  <si>
     <t>Proportion of women aged 20-24 years who were married or in a union before age 15</t>
   </si>
   <si>
     <t>SP_DYN_MRBF15</t>
   </si>
   <si>
-    <t>731e1dca</t>
-  </si>
-  <si>
     <t>V.5</t>
   </si>
   <si>
-    <t>9ebf1887</t>
-  </si>
-  <si>
     <t>Adolescent birth rate (aged 15-19 years) per 1,000 women in that age group</t>
   </si>
   <si>
@@ -1077,129 +828,66 @@
     <t>population, demography, family</t>
   </si>
   <si>
-    <t>d2261786</t>
-  </si>
-  <si>
-    <t>c8071d98</t>
-  </si>
-  <si>
     <t>Whether or not ratified ILO convention 100 on equal remuneration for women and men</t>
   </si>
   <si>
-    <t>a9af20cf</t>
-  </si>
-  <si>
     <t>Whether or not ratified ILO convention 111 on discrimination in employment and occupation</t>
   </si>
   <si>
-    <t>a18d1dbf</t>
-  </si>
-  <si>
-    <t>edf11ece</t>
-  </si>
-  <si>
     <t>Whether or not ratified ILO convention 156 on workers with familiy responsibilities</t>
   </si>
   <si>
-    <t>909d1569</t>
-  </si>
-  <si>
     <t>Whether or not ratified ILO convention 175 on part-time work</t>
   </si>
   <si>
-    <t>299b1381</t>
-  </si>
-  <si>
     <t>Whether or not ratified ILO convention 177 on home work</t>
   </si>
   <si>
-    <t>1dd41836</t>
-  </si>
-  <si>
     <t>Whether or not ratified ILO convention 183 on maternity protection</t>
   </si>
   <si>
     <t>Length of maternity leave</t>
   </si>
   <si>
-    <t>a4f411bc</t>
-  </si>
-  <si>
     <t>Percentage of wages paid during maternity leave</t>
   </si>
   <si>
-    <t>3afe1f42</t>
-  </si>
-  <si>
     <t>Presence of a gender quota for parliament (reserved seats and legal candidate quotas)</t>
   </si>
   <si>
-    <t>2f5318b1</t>
-  </si>
-  <si>
     <t>Presence of a gender quota for parliament (voluntary party quotas)</t>
   </si>
   <si>
-    <t>04c00dff</t>
-  </si>
-  <si>
     <t>Existence of law on gender statistics</t>
   </si>
   <si>
-    <t>c6261123</t>
-  </si>
-  <si>
     <t>Whether or not reservation to article 16 of CEDAW (retired)</t>
   </si>
   <si>
     <t>CEDAW Status (retired)</t>
   </si>
   <si>
-    <t>3bd306b9</t>
-  </si>
-  <si>
     <t>Optional Protocol (retired)</t>
   </si>
   <si>
-    <t>62451ce4</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Compatibility with religious laws or traditional codes (retired)</t>
   </si>
   <si>
-    <t>00981365</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Elimination of discrimination (retired)</t>
   </si>
   <si>
-    <t>822110a9</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Equality in employment (retired)</t>
   </si>
   <si>
-    <t>92b51109</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Equality of nationality (retired)</t>
   </si>
   <si>
-    <t>eb9312be</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Equality to choose residence (retired)</t>
   </si>
   <si>
-    <t>70db14f7</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Equal rights in marriage and family (retired)</t>
   </si>
   <si>
-    <t>08bb0d77</t>
-  </si>
-  <si>
     <t>Reservations to CEDAW - Other concerns (retired)</t>
   </si>
   <si>
@@ -1242,12 +930,6 @@
     <t>SG_LGL_GENEQMAR</t>
   </si>
   <si>
-    <t>158e0e5f</t>
-  </si>
-  <si>
-    <t>b6ec11bf</t>
-  </si>
-  <si>
     <t>Existence of laws on domestic violence (retired)</t>
   </si>
   <si>
@@ -1257,57 +939,33 @@
     <t>Existence of laws on domestic violence</t>
   </si>
   <si>
-    <t>d11d0c44</t>
-  </si>
-  <si>
     <t>Existence of laws on marital rape</t>
   </si>
   <si>
-    <t>158d0e7a</t>
-  </si>
-  <si>
     <t>Existence of laws on sexual harassment</t>
   </si>
   <si>
-    <t>b0e21aa2</t>
-  </si>
-  <si>
     <t>Whether or not inheritance rights discriminate against women and girls (retired)</t>
   </si>
   <si>
     <t>split into "Whether or not inheritance rights discriminate against widows" and "Whether or not inheritance rights discriminate against daughters"</t>
   </si>
   <si>
-    <t>cfd91785</t>
-  </si>
-  <si>
     <t>Whether or not inheritance rights discriminate against widows</t>
   </si>
   <si>
-    <t>181218af</t>
-  </si>
-  <si>
     <t>Whether or not inheritance rights discriminate against daughters</t>
   </si>
   <si>
-    <t>fdb90d43</t>
-  </si>
-  <si>
     <t>Legal minimum age at marriage, by sex (retired)</t>
   </si>
   <si>
     <t>split into "Minimum age for legal marriage - Without parental consent" and "Minimum age for legal marriage - With parental consent"</t>
   </si>
   <si>
-    <t>583c1510</t>
-  </si>
-  <si>
     <t>Minimum age for legal marriage - Without parental consent</t>
   </si>
   <si>
-    <t>174413b8</t>
-  </si>
-  <si>
     <t>Minimum age for legal marriage - With parental consent</t>
   </si>
   <si>
@@ -1359,10 +1017,595 @@
     <t>Proportion of ever-partnered women and girls subjected to physical and/or sexual violence by a current or former intimate partner in the previous 12 months, by age</t>
   </si>
   <si>
-    <t>9a5e3c3a</t>
-  </si>
-  <si>
     <t>d76834fb</t>
+  </si>
+  <si>
+    <t>S997d1fdb</t>
+  </si>
+  <si>
+    <t>Sc59d1d8b</t>
+  </si>
+  <si>
+    <t>S0db81b0d</t>
+  </si>
+  <si>
+    <t>Sad2e1d29</t>
+  </si>
+  <si>
+    <t>Sd4e715ea</t>
+  </si>
+  <si>
+    <t>Sab331582</t>
+  </si>
+  <si>
+    <t>S8bd915c9</t>
+  </si>
+  <si>
+    <t>S51881915</t>
+  </si>
+  <si>
+    <t>Sc273120e</t>
+  </si>
+  <si>
+    <t>S51781c19</t>
+  </si>
+  <si>
+    <t>S5dba0fb5</t>
+  </si>
+  <si>
+    <t>S8d681d8b</t>
+  </si>
+  <si>
+    <t>S51b31cbb</t>
+  </si>
+  <si>
+    <t>Sf8fc1b6d</t>
+  </si>
+  <si>
+    <t>Sdf4d1b4b</t>
+  </si>
+  <si>
+    <t>Sa3981659</t>
+  </si>
+  <si>
+    <t>Sd5a60c11</t>
+  </si>
+  <si>
+    <t>S36180f12</t>
+  </si>
+  <si>
+    <t>S0d5c350a</t>
+  </si>
+  <si>
+    <t>Se9834abb</t>
+  </si>
+  <si>
+    <t>S2d8b1bf8</t>
+  </si>
+  <si>
+    <t>Sd1cf0c58</t>
+  </si>
+  <si>
+    <t>Sc6bf121c</t>
+  </si>
+  <si>
+    <t>S21ec2428</t>
+  </si>
+  <si>
+    <t>S6e1d24f4</t>
+  </si>
+  <si>
+    <t>Sf922306b</t>
+  </si>
+  <si>
+    <t>S8fde19b4</t>
+  </si>
+  <si>
+    <t>Sc94311cc</t>
+  </si>
+  <si>
+    <t>S13151395</t>
+  </si>
+  <si>
+    <t>Sb8e91664</t>
+  </si>
+  <si>
+    <t>Sf3a22329</t>
+  </si>
+  <si>
+    <t>Sf1e8239d</t>
+  </si>
+  <si>
+    <t>S456b14be</t>
+  </si>
+  <si>
+    <t>S40470f13</t>
+  </si>
+  <si>
+    <t>S0d771394</t>
+  </si>
+  <si>
+    <t>Sfae61340</t>
+  </si>
+  <si>
+    <t>Sa10d1a88</t>
+  </si>
+  <si>
+    <t>Sd6c01b4c</t>
+  </si>
+  <si>
+    <t>Sc3061e6c</t>
+  </si>
+  <si>
+    <t>Sbc8f1af8</t>
+  </si>
+  <si>
+    <t>S27d72270</t>
+  </si>
+  <si>
+    <t>Sc4bf1a5f</t>
+  </si>
+  <si>
+    <t>Sc5211ad2</t>
+  </si>
+  <si>
+    <t>Sd42f1231</t>
+  </si>
+  <si>
+    <t>Sa7501ddf</t>
+  </si>
+  <si>
+    <t>Sd2dc1714</t>
+  </si>
+  <si>
+    <t>Sbe822278</t>
+  </si>
+  <si>
+    <t>Sa00b1ab7</t>
+  </si>
+  <si>
+    <t>Sed7f11c7</t>
+  </si>
+  <si>
+    <t>S01912ae8</t>
+  </si>
+  <si>
+    <t>S18f221cb</t>
+  </si>
+  <si>
+    <t>S42192176</t>
+  </si>
+  <si>
+    <t>S42da2179</t>
+  </si>
+  <si>
+    <t>S216a2120</t>
+  </si>
+  <si>
+    <t>S56e81ed9</t>
+  </si>
+  <si>
+    <t>S339b1e69</t>
+  </si>
+  <si>
+    <t>S97572e77</t>
+  </si>
+  <si>
+    <t>Sad5532a0</t>
+  </si>
+  <si>
+    <t>Sd3190c3e</t>
+  </si>
+  <si>
+    <t>S75250979</t>
+  </si>
+  <si>
+    <t>S5b5c0fcb</t>
+  </si>
+  <si>
+    <t>S7cdd10b8</t>
+  </si>
+  <si>
+    <t>S784515d6</t>
+  </si>
+  <si>
+    <t>Sc68a22f4</t>
+  </si>
+  <si>
+    <t>S555b0f6a</t>
+  </si>
+  <si>
+    <t>Sed2520f0</t>
+  </si>
+  <si>
+    <t>S121f0e02</t>
+  </si>
+  <si>
+    <t>Sc5db0b34</t>
+  </si>
+  <si>
+    <t>Sbdc928a3</t>
+  </si>
+  <si>
+    <t>S22b614cb</t>
+  </si>
+  <si>
+    <t>S5867152a</t>
+  </si>
+  <si>
+    <t>S37241f88</t>
+  </si>
+  <si>
+    <t>S6b4d10a8</t>
+  </si>
+  <si>
+    <t>Sca981746</t>
+  </si>
+  <si>
+    <t>Sb3320b80</t>
+  </si>
+  <si>
+    <t>S5aac0815</t>
+  </si>
+  <si>
+    <t>S6bcc3b15</t>
+  </si>
+  <si>
+    <t>S	bef52966</t>
+  </si>
+  <si>
+    <t>Sf8af2bef</t>
+  </si>
+  <si>
+    <t>S	91c32905</t>
+  </si>
+  <si>
+    <t>S9a5e3c3a</t>
+  </si>
+  <si>
+    <t>Sbe0d4226</t>
+  </si>
+  <si>
+    <t>Sb51531fc</t>
+  </si>
+  <si>
+    <t>S241a26cf</t>
+  </si>
+  <si>
+    <t>S94021bf2</t>
+  </si>
+  <si>
+    <t>S93ff1bef</t>
+  </si>
+  <si>
+    <t>S9ebf1887</t>
+  </si>
+  <si>
+    <t>Sc8071d98</t>
+  </si>
+  <si>
+    <t>Sa9af20cf</t>
+  </si>
+  <si>
+    <t>Sedf11ece</t>
+  </si>
+  <si>
+    <t>S909d1569</t>
+  </si>
+  <si>
+    <t>S299b1381</t>
+  </si>
+  <si>
+    <t>S1dd41836</t>
+  </si>
+  <si>
+    <t>S79580982</t>
+  </si>
+  <si>
+    <t>Sa4f411bc</t>
+  </si>
+  <si>
+    <t>S3afe1f42</t>
+  </si>
+  <si>
+    <t>S2f5318b1</t>
+  </si>
+  <si>
+    <t>S04c00dff</t>
+  </si>
+  <si>
+    <t>Sc6261123</t>
+  </si>
+  <si>
+    <t>S17230409</t>
+  </si>
+  <si>
+    <t>S3bd306b9</t>
+  </si>
+  <si>
+    <t>S62451ce4</t>
+  </si>
+  <si>
+    <t>S00981365</t>
+  </si>
+  <si>
+    <t>S822110a9</t>
+  </si>
+  <si>
+    <t>S92b51109</t>
+  </si>
+  <si>
+    <t>Seb9312be</t>
+  </si>
+  <si>
+    <t>S70db14f7</t>
+  </si>
+  <si>
+    <t>S08bb0d77</t>
+  </si>
+  <si>
+    <t>Se2c9383f</t>
+  </si>
+  <si>
+    <t>S8adc3032</t>
+  </si>
+  <si>
+    <t>S579a33eb</t>
+  </si>
+  <si>
+    <t>Sd06c2eaf</t>
+  </si>
+  <si>
+    <t>Sb6ec11bf</t>
+  </si>
+  <si>
+    <t>S158e0e5f</t>
+  </si>
+  <si>
+    <t>Sd11d0c44</t>
+  </si>
+  <si>
+    <t>S158d0e7a</t>
+  </si>
+  <si>
+    <t>Sb0e21aa2</t>
+  </si>
+  <si>
+    <t>Scfd91785</t>
+  </si>
+  <si>
+    <t>S181218af</t>
+  </si>
+  <si>
+    <t>Sfdb90d43</t>
+  </si>
+  <si>
+    <t>S583c1510</t>
+  </si>
+  <si>
+    <t>S174413b8</t>
+  </si>
+  <si>
+    <t>I98ba1fd8</t>
+  </si>
+  <si>
+    <t>Ic62a19e8</t>
+  </si>
+  <si>
+    <t>Ia7751861</t>
+  </si>
+  <si>
+    <t>I8bd915c9</t>
+  </si>
+  <si>
+    <t>I51881915</t>
+  </si>
+  <si>
+    <t>Ic273120e</t>
+  </si>
+  <si>
+    <t>I57821c41</t>
+  </si>
+  <si>
+    <t>Ib4d516a8</t>
+  </si>
+  <si>
+    <t>I0cfd2d68</t>
+  </si>
+  <si>
+    <t>Iddba1b3e</t>
+  </si>
+  <si>
+    <t>Ia3981659</t>
+  </si>
+  <si>
+    <t>I0d5c350a</t>
+  </si>
+  <si>
+    <t>Ie9834abb</t>
+  </si>
+  <si>
+    <t>I5bf21940</t>
+  </si>
+  <si>
+    <t>Ic6bf121c</t>
+  </si>
+  <si>
+    <t>Ic6982113</t>
+  </si>
+  <si>
+    <t>If922306b</t>
+  </si>
+  <si>
+    <t>Id76834fb</t>
+  </si>
+  <si>
+    <t>Ic94311cc</t>
+  </si>
+  <si>
+    <t>I13151395</t>
+  </si>
+  <si>
+    <t>Ib8e91664</t>
+  </si>
+  <si>
+    <t>If3a22329</t>
+  </si>
+  <si>
+    <t>I	f1e8239d</t>
+  </si>
+  <si>
+    <t>I456b14be</t>
+  </si>
+  <si>
+    <t>I40470f13</t>
+  </si>
+  <si>
+    <t>I0d771394</t>
+  </si>
+  <si>
+    <t>Ifae61340</t>
+  </si>
+  <si>
+    <t>I856d2383</t>
+  </si>
+  <si>
+    <t>I27d72270</t>
+  </si>
+  <si>
+    <t>Ic4bf1a5f</t>
+  </si>
+  <si>
+    <t>Ief9e0d38</t>
+  </si>
+  <si>
+    <t>Id42f1231</t>
+  </si>
+  <si>
+    <t>I66c21045</t>
+  </si>
+  <si>
+    <t>Id2dc1714</t>
+  </si>
+  <si>
+    <t>Ia03b11e0</t>
+  </si>
+  <si>
+    <t>Ia00b1ab7</t>
+  </si>
+  <si>
+    <t>I2e391327</t>
+  </si>
+  <si>
+    <t>Ib6932825</t>
+  </si>
+  <si>
+    <t>I18f221cb</t>
+  </si>
+  <si>
+    <t>I229b17ac</t>
+  </si>
+  <si>
+    <t>I97572e77</t>
+  </si>
+  <si>
+    <t>Id3190c3e</t>
+  </si>
+  <si>
+    <t>I75250979</t>
+  </si>
+  <si>
+    <t>I682508c0</t>
+  </si>
+  <si>
+    <t>I784515d6</t>
+  </si>
+  <si>
+    <t>Ic68a22f4</t>
+  </si>
+  <si>
+    <t>I555b0f6a</t>
+  </si>
+  <si>
+    <t>Ied2520f0</t>
+  </si>
+  <si>
+    <t>I121f0e02</t>
+  </si>
+  <si>
+    <t>Ic5db0b34</t>
+  </si>
+  <si>
+    <t>Ibdc928a3</t>
+  </si>
+  <si>
+    <t>I22b614cb</t>
+  </si>
+  <si>
+    <t>I836a1d80</t>
+  </si>
+  <si>
+    <t>I6b4d10a8</t>
+  </si>
+  <si>
+    <t>Ib3320b80</t>
+  </si>
+  <si>
+    <t>I5aac0815</t>
+  </si>
+  <si>
+    <t>Iece33744</t>
+  </si>
+  <si>
+    <t>Ia8b55125</t>
+  </si>
+  <si>
+    <t>Ibe0d4226</t>
+  </si>
+  <si>
+    <t>I241a26cf</t>
+  </si>
+  <si>
+    <t>Ic36721ab</t>
+  </si>
+  <si>
+    <t>I731e1dca</t>
+  </si>
+  <si>
+    <t>Id2261786</t>
+  </si>
+  <si>
+    <t>Ia18d1dbf</t>
+  </si>
+  <si>
+    <t>I79580982</t>
+  </si>
+  <si>
+    <t>Ia4f411bc</t>
+  </si>
+  <si>
+    <t>I3afe1f42</t>
+  </si>
+  <si>
+    <t>I2f5318b1</t>
+  </si>
+  <si>
+    <t>I04c00dff</t>
+  </si>
+  <si>
+    <t>Ic6261123</t>
+  </si>
+  <si>
+    <t>I71213127</t>
+  </si>
+  <si>
+    <t>I158e0e5f</t>
+  </si>
+  <si>
+    <t>Ib0e21aa2</t>
+  </si>
+  <si>
+    <t>Ifdb90d43</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2249,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2031,16 +2274,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5">
       <c r="A1" s="2" t="s">
-        <v>409</v>
+        <v>295</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>410</v>
+        <v>296</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
@@ -2067,7 +2310,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>8</v>
@@ -2093,31 +2336,31 @@
         <v>100</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="O2" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="38.25">
@@ -2134,31 +2377,31 @@
         <v>200</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="38.25">
@@ -2175,31 +2418,31 @@
         <v>300</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="38.25">
@@ -2216,16 +2459,16 @@
         <v>400</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -2235,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="38.25">
@@ -2255,32 +2498,32 @@
         <v>500</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>29</v>
+        <v>436</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="38.25">
@@ -2297,32 +2540,32 @@
         <v>600</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>29</v>
+        <v>436</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="38.25">
@@ -2339,32 +2582,32 @@
         <v>700</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>37</v>
+        <v>437</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M8" s="9">
         <v>1</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="38.25">
@@ -2380,33 +2623,33 @@
       <c r="D9" s="12">
         <v>800</v>
       </c>
-      <c r="E9" s="13">
-        <v>51881915</v>
+      <c r="E9" s="13" t="s">
+        <v>438</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="8">
-        <v>51881915</v>
+        <v>31</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M9" s="9">
         <v>1</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="38.25">
@@ -2423,70 +2666,70 @@
         <v>900</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M10" s="9">
         <v>1</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="38.25">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D11" s="16">
         <v>1000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="38.25">
@@ -2503,14 +2746,14 @@
         <v>1100</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>52</v>
+        <v>441</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="14" t="s">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
@@ -2520,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="38.25">
@@ -2540,29 +2783,29 @@
         <v>1200</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>55</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>57</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M13" s="9">
         <v>1</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="38.25">
@@ -2579,32 +2822,32 @@
         <v>1300</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>55</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M14" s="9">
         <v>1</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="38.25">
@@ -2621,32 +2864,32 @@
         <v>1400</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>55</v>
+        <v>442</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M15" s="9">
         <v>1</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="38.25">
@@ -2663,31 +2906,31 @@
         <v>1500</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>65</v>
+        <v>443</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M16" s="9">
         <v>1</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="25.5">
@@ -2704,29 +2947,29 @@
         <v>1600</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>70</v>
+        <v>444</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="14" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="M17" s="9">
         <v>4</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="38.25">
@@ -2743,31 +2986,31 @@
         <v>1700</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>70</v>
+        <v>444</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I18" s="7">
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="M18" s="9">
         <v>1</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="38.25">
@@ -2784,34 +3027,34 @@
         <v>1800</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>70</v>
+        <v>444</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7">
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="M19" s="9">
         <v>1</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="38.25">
@@ -2828,31 +3071,31 @@
         <v>1900</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I20" s="7">
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M20" s="9">
         <v>1</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" ht="51">
@@ -2869,16 +3112,16 @@
         <v>2000</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>85</v>
+        <v>446</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I21" s="7">
         <v>0</v>
@@ -2890,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P21" s="9"/>
     </row>
@@ -2911,31 +3154,31 @@
         <v>2100</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>88</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>90</v>
+        <v>332</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="I22" s="7">
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="M22" s="9">
         <v>1</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" ht="38.25">
@@ -2946,22 +3189,22 @@
         <v>13</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D23" s="12">
         <v>2200</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>88</v>
+        <v>447</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="I23" s="22">
         <v>0</v>
@@ -2971,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O23" s="18"/>
     </row>
@@ -2989,108 +3232,108 @@
         <v>2300</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>95</v>
+        <v>448</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>95</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="9" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9">
         <v>1</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" ht="38.25">
       <c r="A25" s="17" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D25" s="12">
         <v>2400</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>99</v>
+        <v>449</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>101</v>
+        <v>335</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="I25" s="18">
         <v>0</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="M25" s="9">
         <v>1</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="1" customFormat="1" ht="38.25">
       <c r="A26" s="17" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D26" s="12">
         <v>2500</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>99</v>
+        <v>449</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>104</v>
+        <v>336</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I26" s="18">
         <v>0</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="M26" s="9">
         <v>1</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="38.25">
@@ -3107,14 +3350,14 @@
         <v>2600</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>106</v>
+        <v>450</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="14" t="s">
-        <v>106</v>
+        <v>337</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -3124,40 +3367,40 @@
         <v>4</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="38.25">
       <c r="A28" s="17" t="s">
-        <v>426</v>
+        <v>311</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="15" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D28" s="12">
         <v>2700</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>338</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="I28" s="18">
         <v>0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3165,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="1"/>
@@ -3184,14 +3427,14 @@
         <v>2800</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>112</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="14" t="s">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -3201,7 +3444,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="38.25">
@@ -3217,17 +3460,17 @@
       <c r="D30" s="12">
         <v>2900</v>
       </c>
-      <c r="E30" s="13">
-        <v>13151395</v>
+      <c r="E30" s="13" t="s">
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="8">
-        <v>13151395</v>
+        <v>85</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="I30" s="7">
         <v>0</v>
@@ -3237,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" s="18"/>
       <c r="P30" s="1"/>
@@ -3256,31 +3499,31 @@
         <v>3000</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>116</v>
+        <v>454</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>116</v>
+        <v>341</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="I31" s="7">
         <v>0</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="M31" s="9">
         <v>1</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="25.5">
@@ -3297,14 +3540,14 @@
         <v>3100</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>120</v>
+        <v>455</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="14" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
@@ -3314,48 +3557,48 @@
         <v>5</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O32" s="25"/>
       <c r="P32" s="26"/>
     </row>
     <row r="33" spans="1:16" ht="25.5">
       <c r="A33" s="17" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="D33" s="12">
         <v>3200</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>162</v>
+        <v>456</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>164</v>
+        <v>343</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="I33" s="18">
         <v>0</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="M33" s="9">
         <v>2</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="1" customFormat="1" ht="25.5">
@@ -3372,14 +3615,14 @@
         <v>3300</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="14" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
@@ -3391,33 +3634,33 @@
         <v>5</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" ht="38.25">
       <c r="A35" s="21" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="23" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D35" s="12">
         <v>3400</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>129</v>
+        <v>458</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="I35" s="22">
         <v>0</v>
@@ -3425,13 +3668,13 @@
       <c r="J35" s="24"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="M35" s="9">
         <v>1</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="38.25">
@@ -3448,32 +3691,32 @@
         <v>3500</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>135</v>
+        <v>459</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>135</v>
+        <v>346</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="I36" s="7">
         <v>0</v>
       </c>
       <c r="J36" s="8"/>
       <c r="L36" s="9" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="M36" s="9">
         <v>1</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="38.25">
@@ -3490,32 +3733,32 @@
         <v>3600</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>139</v>
+        <v>460</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>139</v>
+        <v>347</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="I37" s="7">
         <v>0</v>
       </c>
       <c r="J37" s="8"/>
       <c r="L37" s="9" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="M37" s="9">
         <v>1</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="25.5">
@@ -3532,27 +3775,27 @@
         <v>3700</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>143</v>
+        <v>461</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="14" t="s">
-        <v>144</v>
+        <v>348</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="I38" s="7">
         <v>1</v>
       </c>
       <c r="J38" s="8"/>
       <c r="L38" s="9" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="M38" s="9">
         <v>5</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="25.5">
@@ -3569,27 +3812,27 @@
         <v>3800</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>143</v>
+        <v>461</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="14" t="s">
-        <v>147</v>
+        <v>349</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
       </c>
       <c r="J39" s="8"/>
       <c r="L39" s="9" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="M39" s="9">
         <v>5</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="25.5">
@@ -3606,27 +3849,27 @@
         <v>3900</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>143</v>
+        <v>461</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="14" t="s">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="I40" s="7">
         <v>1</v>
       </c>
       <c r="J40" s="8"/>
       <c r="L40" s="9" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="M40" s="9">
         <v>5</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="25.5">
@@ -3643,14 +3886,14 @@
         <v>4000</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>143</v>
+        <v>461</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="14" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="I41" s="7">
         <v>1</v>
@@ -3660,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="25.5">
@@ -3677,14 +3920,14 @@
         <v>4100</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>155</v>
+        <v>462</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="14" t="s">
-        <v>155</v>
+        <v>352</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="I42" s="7">
         <v>1</v>
@@ -3694,7 +3937,7 @@
         <v>5</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="25.5">
@@ -3711,14 +3954,14 @@
         <v>4200</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>167</v>
+        <v>463</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="14" t="s">
-        <v>167</v>
+        <v>353</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="I43" s="7">
         <v>1</v>
@@ -3728,43 +3971,43 @@
         <v>5</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="25.5">
       <c r="A44" s="17" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="D44" s="12">
         <v>4300</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>169</v>
+        <v>464</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>171</v>
+        <v>354</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="I44" s="18">
         <v>0</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="M44" s="9">
         <v>2</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O44" s="18"/>
       <c r="P44" s="1"/>
@@ -3783,14 +4026,14 @@
         <v>4400</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="14" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="I45" s="7">
         <v>1</v>
@@ -3800,43 +4043,43 @@
         <v>5</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="25.5">
       <c r="A46" s="17" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D46" s="12">
         <v>4500</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>176</v>
+        <v>466</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="I46" s="18">
         <v>0</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="M46" s="9">
         <v>2</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="25.5">
@@ -3853,14 +4096,14 @@
         <v>4600</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>180</v>
+        <v>467</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="14" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="I47" s="7">
         <v>1</v>
@@ -3870,31 +4113,31 @@
         <v>5</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="25.5">
       <c r="A48" s="21" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="23" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="D48" s="12">
         <v>4700</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>182</v>
+        <v>468</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>184</v>
+        <v>358</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="I48" s="22">
         <v>0</v>
@@ -3902,13 +4145,13 @@
       <c r="J48" s="24"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="M48" s="9">
         <v>2</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="38.25">
@@ -3925,29 +4168,29 @@
         <v>4800</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>158</v>
+        <v>469</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>158</v>
+        <v>359</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="I49" s="7">
         <v>0</v>
       </c>
       <c r="J49" s="8"/>
       <c r="L49" s="9" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="M49" s="9">
         <v>1</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="38.25">
@@ -3964,65 +4207,65 @@
         <v>4900</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>122</v>
+        <v>470</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I50" s="7">
         <v>0</v>
       </c>
       <c r="J50" s="8"/>
       <c r="L50" s="9" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="M50" s="9">
         <v>1</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="38.25">
       <c r="A51" s="17" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="1" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="D51" s="12">
         <v>5000</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>187</v>
+        <v>471</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>189</v>
+        <v>361</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="I51" s="18">
         <v>0</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="M51" s="9">
         <v>2</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="1" customFormat="1" ht="25.5">
@@ -4039,14 +4282,14 @@
         <v>5100</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="14" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
@@ -4058,7 +4301,7 @@
         <v>5</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O52" s="10"/>
       <c r="P52" s="9"/>
@@ -4077,29 +4320,29 @@
         <v>5200</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>194</v>
+        <v>473</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G53" s="8">
-        <v>42192176</v>
+        <v>147</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="I53" s="7">
         <v>0</v>
       </c>
       <c r="J53" s="8"/>
       <c r="L53" s="9" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="M53" s="9">
         <v>2</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="25.5">
@@ -4116,29 +4359,29 @@
         <v>5300</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>194</v>
+        <v>473</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>198</v>
+        <v>364</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="I54" s="7">
         <v>0</v>
       </c>
       <c r="J54" s="8"/>
       <c r="L54" s="9" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="M54" s="9">
         <v>2</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="25.5">
@@ -4155,29 +4398,29 @@
         <v>5400</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>194</v>
+        <v>473</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="I55" s="7">
         <v>0</v>
       </c>
       <c r="J55" s="8"/>
       <c r="L55" s="9" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="M55" s="9">
         <v>2</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="25.5">
@@ -4194,29 +4437,29 @@
         <v>5500</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>194</v>
+        <v>473</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>204</v>
+        <v>366</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="I56" s="7">
         <v>0</v>
       </c>
       <c r="J56" s="8"/>
       <c r="L56" s="9" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="M56" s="9">
         <v>2</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="25.5">
@@ -4233,32 +4476,32 @@
         <v>5600</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>194</v>
+        <v>473</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>207</v>
+        <v>367</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="I57" s="7">
         <v>0</v>
       </c>
       <c r="J57" s="8"/>
       <c r="L57" s="9" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="M57" s="9">
         <v>2</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="38.25">
@@ -4275,31 +4518,31 @@
         <v>5700</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>210</v>
+        <v>474</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>210</v>
+        <v>368</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="I58" s="7">
         <v>0</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="M58" s="9">
         <v>2</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="38.25">
@@ -4316,16 +4559,16 @@
         <v>5800</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>210</v>
+        <v>474</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="I59" s="7">
         <v>0</v>
@@ -4335,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4352,28 +4595,28 @@
         <v>5900</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>218</v>
+        <v>370</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="I60" s="7">
         <v>0</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="M60" s="9">
         <v>2</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4389,29 +4632,29 @@
       <c r="D61" s="12">
         <v>6000</v>
       </c>
-      <c r="E61" s="13">
-        <v>75250979</v>
+      <c r="E61" s="13" t="s">
+        <v>476</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>223</v>
+        <v>371</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="I61" s="7">
         <v>0</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="M61" s="9">
         <v>2</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4428,16 +4671,16 @@
         <v>6100</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>226</v>
+        <v>477</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>228</v>
+        <v>372</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="I62" s="7">
         <v>0</v>
@@ -4447,10 +4690,10 @@
         <v>2</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4467,16 +4710,16 @@
         <v>6200</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>226</v>
+        <v>477</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="I63" s="7">
         <v>0</v>
@@ -4486,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="25.5">
@@ -4503,31 +4746,31 @@
         <v>6300</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>232</v>
+        <v>478</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>232</v>
+        <v>374</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="I64" s="7">
         <v>0</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="M64" s="9">
         <v>2</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="25.5">
@@ -4544,28 +4787,28 @@
         <v>6400</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>236</v>
+        <v>479</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="I65" s="7">
         <v>0</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="M65" s="9">
         <v>2</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O65" s="18"/>
       <c r="P65" s="1"/>
@@ -4584,16 +4827,16 @@
         <v>6500</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>240</v>
+        <v>376</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="I66" s="7">
         <v>0</v>
@@ -4603,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="25.5">
@@ -4620,31 +4863,31 @@
         <v>6600</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>243</v>
+        <v>481</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="I67" s="7">
         <v>0</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="M67" s="9">
         <v>2</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4661,16 +4904,16 @@
         <v>6700</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>247</v>
+        <v>482</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>247</v>
+        <v>378</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="I68" s="7">
         <v>0</v>
@@ -4680,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4700,16 +4943,16 @@
         <v>6800</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>250</v>
+        <v>483</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="I69" s="7">
         <v>0</v>
@@ -4719,10 +4962,10 @@
         <v>2</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="25.5">
@@ -4739,31 +4982,31 @@
         <v>6900</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>254</v>
+        <v>484</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="I70" s="7">
         <v>0</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="M70" s="9">
         <v>2</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="1" customFormat="1">
@@ -4780,16 +5023,16 @@
         <v>7000</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>258</v>
+        <v>485</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="I71" s="7">
         <v>0</v>
@@ -4801,10 +5044,10 @@
         <v>2</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="P71" s="9"/>
     </row>
@@ -4822,31 +5065,31 @@
         <v>7100</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>263</v>
+        <v>486</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>265</v>
+        <v>382</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="I72" s="7">
         <v>0</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="M72" s="9">
         <v>2</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="25.5">
@@ -4863,31 +5106,31 @@
         <v>7200</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>263</v>
+        <v>486</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>269</v>
+        <v>383</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="I73" s="7">
         <v>0</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="M73" s="9">
         <v>3</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O73" s="10" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4904,34 +5147,34 @@
         <v>7300</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>272</v>
+        <v>384</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="I74" s="7">
         <v>0</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="M74" s="9">
         <v>3</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O74" s="10" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="25.5">
@@ -4948,31 +5191,31 @@
         <v>7400</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>278</v>
+        <v>385</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="I75" s="7">
         <v>0</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="M75" s="9">
         <v>3</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O75" s="10" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4989,16 +5232,16 @@
         <v>7500</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>281</v>
+        <v>488</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>281</v>
+        <v>386</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="I76" s="7">
         <v>0</v>
@@ -5008,10 +5251,10 @@
         <v>3</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5028,16 +5271,16 @@
         <v>7600</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>285</v>
+        <v>489</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="I77" s="7">
         <v>0</v>
@@ -5047,155 +5290,155 @@
         <v>3</v>
       </c>
       <c r="N77" s="10" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="1" customFormat="1" ht="51">
       <c r="A78" s="1" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="D78" s="16">
         <v>7700</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>289</v>
+        <v>490</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="I78" s="18">
         <v>0</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="M78" s="1">
         <v>3</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O78" s="18"/>
     </row>
     <row r="79" spans="1:16" s="1" customFormat="1" ht="38.25">
       <c r="A79" s="1" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="D79" s="16">
         <v>7800</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>289</v>
+        <v>490</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="I79" s="18">
         <v>0</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="M79" s="1">
         <v>3</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O79" s="18"/>
     </row>
     <row r="80" spans="1:16" s="1" customFormat="1" ht="38.25">
       <c r="A80" s="1" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="D80" s="16">
         <v>7900</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>289</v>
+        <v>490</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="I80" s="18">
         <v>0</v>
       </c>
       <c r="J80" s="19" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="M80" s="1">
         <v>3</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O80" s="18" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="38.25">
       <c r="A81" s="1" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="D81" s="16">
         <v>8000</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>289</v>
+        <v>490</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="I81" s="18">
         <v>0</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="M81" s="1">
         <v>3</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O81" s="18" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="51">
@@ -5212,31 +5455,31 @@
         <v>8100</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>303</v>
+        <v>491</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="I82" s="7">
         <v>0</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="M82" s="9">
         <v>3</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O82" s="10" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="51">
@@ -5253,16 +5496,16 @@
         <v>8200</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>307</v>
+        <v>492</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="I83" s="7">
         <v>0</v>
@@ -5272,10 +5515,10 @@
         <v>3</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O83" s="10" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="38.25">
@@ -5290,16 +5533,16 @@
         <v>8300</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>307</v>
+        <v>492</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="I84" s="22">
         <v>0</v>
@@ -5309,10 +5552,10 @@
         <v>3</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="38.25">
@@ -5329,31 +5572,31 @@
         <v>8400</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>312</v>
+        <v>493</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="I85" s="7">
         <v>0</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="M85" s="9">
         <v>3</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O85" s="10" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="25.5">
@@ -5370,31 +5613,31 @@
         <v>8500</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>316</v>
+        <v>494</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="I86" s="7">
         <v>0</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="M86" s="9">
         <v>4</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O86" s="10" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="25.5">
@@ -5411,31 +5654,31 @@
         <v>8600</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>316</v>
+        <v>494</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="I87" s="7">
         <v>0</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="M87" s="9">
         <v>4</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O87" s="10" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="25.5">
@@ -5452,31 +5695,31 @@
         <v>8700</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>325</v>
+        <v>495</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="I88" s="7">
         <v>0</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="M88" s="9">
         <v>4</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O88" s="10" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="25.5">
@@ -5493,16 +5736,16 @@
         <v>8800</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>411</v>
+        <v>297</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="I89" s="7">
         <v>0</v>
@@ -5512,10 +5755,10 @@
         <v>4</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O89" s="10" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="25.5">
@@ -5532,16 +5775,16 @@
         <v>8900</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>331</v>
+        <v>496</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>411</v>
+        <v>297</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="I90" s="7">
         <v>0</v>
@@ -5551,10 +5794,10 @@
         <v>4</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O90" s="10" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="25.5">
@@ -5571,16 +5814,16 @@
         <v>9000</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>336</v>
+        <v>497</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>337</v>
+        <v>401</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="I91" s="7">
         <v>0</v>
@@ -5590,10 +5833,10 @@
         <v>4</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O91" s="10" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="25.5">
@@ -5610,16 +5853,16 @@
         <v>9100</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>336</v>
+        <v>497</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>340</v>
+        <v>251</v>
       </c>
       <c r="I92" s="7">
         <v>0</v>
@@ -5629,10 +5872,10 @@
         <v>4</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O92" s="10" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="25.5">
@@ -5649,16 +5892,16 @@
         <v>9200</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>336</v>
+        <v>497</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="I93" s="7">
         <v>0</v>
@@ -5668,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="25.5">
@@ -5685,16 +5928,16 @@
         <v>9300</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>336</v>
+        <v>497</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>344</v>
+        <v>253</v>
       </c>
       <c r="I94" s="7">
         <v>0</v>
@@ -5704,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5720,17 +5963,17 @@
       <c r="D95" s="12">
         <v>9400</v>
       </c>
-      <c r="E95" s="13">
-        <v>79580982</v>
+      <c r="E95" s="13" t="s">
+        <v>498</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G95" s="8">
-        <v>79580982</v>
+        <v>299</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>345</v>
+        <v>254</v>
       </c>
       <c r="I95" s="7">
         <v>0</v>
@@ -5740,7 +5983,7 @@
         <v>4</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5757,16 +6000,16 @@
         <v>9500</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>346</v>
+        <v>499</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>414</v>
+        <v>300</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="I96" s="7">
         <v>0</v>
@@ -5776,7 +6019,7 @@
         <v>4</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="25.5">
@@ -5793,16 +6036,16 @@
         <v>9600</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>348</v>
+        <v>500</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>415</v>
+        <v>301</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>349</v>
+        <v>256</v>
       </c>
       <c r="I97" s="7">
         <v>0</v>
@@ -5812,10 +6055,10 @@
         <v>5</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O97" s="10" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="25.5">
@@ -5832,16 +6075,16 @@
         <v>9700</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>350</v>
+        <v>501</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>416</v>
+        <v>302</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="I98" s="7">
         <v>0</v>
@@ -5851,10 +6094,10 @@
         <v>5</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O98" s="10" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="25.5">
@@ -5871,16 +6114,16 @@
         <v>9800</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>352</v>
+        <v>502</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>417</v>
+        <v>303</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="I99" s="7">
         <v>0</v>
@@ -5890,10 +6133,10 @@
         <v>5</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O99" s="10" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="25.5">
@@ -5910,14 +6153,14 @@
         <v>9900</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="14" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>355</v>
+        <v>259</v>
       </c>
       <c r="I100" s="14">
         <v>1</v>
@@ -5929,7 +6172,7 @@
         <v>5</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="25.5">
@@ -5946,14 +6189,14 @@
         <v>10000</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F101" s="7"/>
-      <c r="G101" s="8">
-        <v>17230409</v>
+      <c r="G101" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="I101" s="14">
         <v>1</v>
@@ -5963,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:16" s="26" customFormat="1" ht="25.5">
@@ -5980,14 +6223,14 @@
         <v>10100</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="14" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>358</v>
+        <v>261</v>
       </c>
       <c r="I102" s="14">
         <v>1</v>
@@ -5999,7 +6242,7 @@
         <v>5</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O102" s="10"/>
       <c r="P102" s="9"/>
@@ -6018,14 +6261,14 @@
         <v>10200</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="14" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>360</v>
+        <v>262</v>
       </c>
       <c r="I103" s="14">
         <v>1</v>
@@ -6035,11 +6278,11 @@
         <v>5</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O103" s="25"/>
       <c r="P103" s="9" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="25.5">
@@ -6056,14 +6299,14 @@
         <v>10300</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="8" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="I104" s="14">
         <v>1</v>
@@ -6073,7 +6316,7 @@
         <v>5</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="25.5">
@@ -6090,14 +6333,14 @@
         <v>10400</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="14" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="I105" s="14">
         <v>1</v>
@@ -6107,7 +6350,7 @@
         <v>5</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="25.5">
@@ -6124,14 +6367,14 @@
         <v>10500</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="14" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="I106" s="14">
         <v>1</v>
@@ -6141,7 +6384,7 @@
         <v>5</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="25.5">
@@ -6158,14 +6401,14 @@
         <v>10600</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="14" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="I107" s="14">
         <v>1</v>
@@ -6175,13 +6418,13 @@
         <v>5</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O107" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>397</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="25.5">
@@ -6198,14 +6441,14 @@
         <v>10700</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="14" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>370</v>
+        <v>267</v>
       </c>
       <c r="I108" s="14">
         <v>1</v>
@@ -6215,10 +6458,10 @@
         <v>5</v>
       </c>
       <c r="N108" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O108" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="25.5">
@@ -6235,14 +6478,14 @@
         <v>10800</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="14" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>372</v>
+        <v>268</v>
       </c>
       <c r="I109" s="14">
         <v>1</v>
@@ -6252,162 +6495,162 @@
         <v>5</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O109" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:16" s="1" customFormat="1" ht="38.25">
       <c r="A110" s="17" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="D110" s="16">
         <v>10900</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="I110" s="18">
         <v>0</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="M110" s="1">
         <v>5</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:16" s="1" customFormat="1" ht="38.25">
       <c r="A111" s="17" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="D111" s="16">
         <v>11000</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>378</v>
+        <v>274</v>
       </c>
       <c r="I111" s="18">
         <v>0</v>
       </c>
       <c r="J111" s="19" t="s">
-        <v>379</v>
+        <v>275</v>
       </c>
       <c r="M111" s="1">
         <v>5</v>
       </c>
       <c r="N111" s="18" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O111" s="18" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:16" s="1" customFormat="1" ht="38.25">
       <c r="A112" s="17" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="D112" s="16">
         <v>11100</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="I112" s="18">
         <v>0</v>
       </c>
       <c r="J112" s="19" t="s">
-        <v>382</v>
+        <v>278</v>
       </c>
       <c r="M112" s="1">
         <v>5</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="1" customFormat="1" ht="38.25">
       <c r="A113" s="17" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>383</v>
+        <v>279</v>
       </c>
       <c r="D113" s="16">
         <v>11200</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="I113" s="18">
         <v>0</v>
       </c>
       <c r="J113" s="19" t="s">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="M113" s="1">
         <v>5</v>
       </c>
       <c r="N113" s="18" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O113" s="18" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="25.5">
@@ -6424,14 +6667,14 @@
         <v>11300</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>386</v>
+        <v>505</v>
       </c>
       <c r="F114" s="7"/>
       <c r="G114" s="14" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="I114" s="14">
         <v>1</v>
@@ -6443,11 +6686,11 @@
         <v>5</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="O114" s="25"/>
       <c r="P114" s="9" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="38.25">
@@ -6464,16 +6707,16 @@
         <v>11400</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>386</v>
+        <v>505</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>419</v>
+        <v>305</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="I115" s="7">
         <v>0</v>
@@ -6483,10 +6726,10 @@
         <v>1</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O115" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="26" customFormat="1" ht="38.25">
@@ -6503,16 +6746,16 @@
         <v>11500</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>386</v>
+        <v>505</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>419</v>
+        <v>305</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>392</v>
+        <v>285</v>
       </c>
       <c r="I116" s="7">
         <v>0</v>
@@ -6524,10 +6767,10 @@
         <v>1</v>
       </c>
       <c r="N116" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O116" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="P116" s="9"/>
     </row>
@@ -6545,16 +6788,16 @@
         <v>11600</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>386</v>
+        <v>505</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>419</v>
+        <v>305</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
       <c r="I117" s="7">
         <v>0</v>
@@ -6564,10 +6807,10 @@
         <v>1</v>
       </c>
       <c r="N117" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O117" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="25.5">
@@ -6584,14 +6827,14 @@
         <v>11700</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="14" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>396</v>
+        <v>287</v>
       </c>
       <c r="I118" s="14">
         <v>1</v>
@@ -6603,7 +6846,7 @@
         <v>5</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="38.25">
@@ -6620,16 +6863,16 @@
         <v>11800</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="I119" s="7">
         <v>0</v>
@@ -6639,10 +6882,10 @@
         <v>1</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O119" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="26" customFormat="1" ht="38.25">
@@ -6659,16 +6902,16 @@
         <v>11900</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>401</v>
+        <v>290</v>
       </c>
       <c r="I120" s="7">
         <v>0</v>
@@ -6680,10 +6923,10 @@
         <v>1</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O120" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="P120" s="9"/>
     </row>
@@ -6701,14 +6944,14 @@
         <v>12000</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>402</v>
+        <v>507</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="14" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>403</v>
+        <v>291</v>
       </c>
       <c r="I121" s="14">
         <v>1</v>
@@ -6720,7 +6963,7 @@
         <v>5</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="38.25">
@@ -6737,16 +6980,16 @@
         <v>12100</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>402</v>
+        <v>507</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>421</v>
+        <v>307</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>406</v>
+        <v>293</v>
       </c>
       <c r="I122" s="7">
         <v>0</v>
@@ -6756,10 +6999,10 @@
         <v>1</v>
       </c>
       <c r="N122" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O122" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="26" customFormat="1" ht="38.25">
@@ -6776,16 +7019,16 @@
         <v>12200</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>402</v>
+        <v>507</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>421</v>
+        <v>307</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>408</v>
+        <v>294</v>
       </c>
       <c r="I123" s="7">
         <v>0</v>
@@ -6797,10 +7040,10 @@
         <v>1</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O123" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="P123" s="9"/>
     </row>

--- a/master_data/catalog_series_old_and_new.xlsx
+++ b/master_data/catalog_series_old_and_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C43947C-7717-4DF0-8E96-5FEB93AC5FD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59282557-665F-44E5-A739-3026D3CB1555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="8805" windowWidth="29040" windowHeight="15840" xr2:uid="{DE7C0272-EBF5-4B5F-81CF-57D56F39C38E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DE7C0272-EBF5-4B5F-81CF-57D56F39C38E}"/>
   </bookViews>
   <sheets>
     <sheet name="CL_SERIES" sheetId="1" r:id="rId1"/>
@@ -729,9 +729,6 @@
     <t>SH_FPL_INFM</t>
   </si>
   <si>
-    <t xml:space="preserve">	bef52966</t>
-  </si>
-  <si>
     <t>Proportion of women who make their own informed decisions regarding contraceptive use (% of women aged 15-49 years)</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
     <t>SH_FPL_INFMRH</t>
   </si>
   <si>
-    <t xml:space="preserve">	91c32905</t>
-  </si>
-  <si>
     <t>Proportion of women who make their own informed decisions regarding sexual relations (% of women aged 15-49 years)</t>
   </si>
   <si>
@@ -1227,15 +1221,9 @@
     <t>S6bcc3b15</t>
   </si>
   <si>
-    <t>S	bef52966</t>
-  </si>
-  <si>
     <t>Sf8af2bef</t>
   </si>
   <si>
-    <t>S	91c32905</t>
-  </si>
-  <si>
     <t>S9a5e3c3a</t>
   </si>
   <si>
@@ -1606,6 +1594,18 @@
   </si>
   <si>
     <t>If1e8239d</t>
+  </si>
+  <si>
+    <t>bef52966</t>
+  </si>
+  <si>
+    <t>Sbef52966</t>
+  </si>
+  <si>
+    <t>S91c32905</t>
+  </si>
+  <si>
+    <t>91c32905</t>
   </si>
 </sst>
 </file>
@@ -2242,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A2D352-C4C8-4DE2-97CA-D08B75E57DA1}">
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="12.75"/>
@@ -2264,22 +2264,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5">
       <c r="A1" s="29" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -2300,16 +2300,16 @@
         <v>6</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="63.75">
@@ -2324,13 +2324,13 @@
         <v>100</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
@@ -2363,13 +2363,13 @@
         <v>200</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -2402,13 +2402,13 @@
         <v>300</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>15</v>
@@ -2441,13 +2441,13 @@
         <v>400</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>18</v>
@@ -2478,13 +2478,13 @@
         <v>500</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>20</v>
@@ -2518,13 +2518,13 @@
         <v>600</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>23</v>
@@ -2558,13 +2558,13 @@
         <v>700</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>25</v>
@@ -2598,13 +2598,13 @@
         <v>800</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>28</v>
@@ -2638,13 +2638,13 @@
         <v>900</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>30</v>
@@ -2677,13 +2677,13 @@
         <v>1000</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>34</v>
@@ -2716,11 +2716,11 @@
         <v>1100</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>37</v>
@@ -2751,13 +2751,13 @@
         <v>1200</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>39</v>
@@ -2788,13 +2788,13 @@
         <v>1300</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>42</v>
@@ -2828,13 +2828,13 @@
         <v>1400</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>43</v>
@@ -2868,13 +2868,13 @@
         <v>1500</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>45</v>
@@ -2907,11 +2907,11 @@
         <v>1600</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>47</v>
@@ -2944,13 +2944,13 @@
         <v>1700</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>51</v>
@@ -2983,13 +2983,13 @@
         <v>1800</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>52</v>
@@ -3025,13 +3025,13 @@
         <v>1900</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>55</v>
@@ -3064,13 +3064,13 @@
         <v>2000</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>59</v>
@@ -3104,13 +3104,13 @@
         <v>2100</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>61</v>
@@ -3142,13 +3142,13 @@
         <v>2200</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>60</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>64</v>
@@ -3177,13 +3177,13 @@
         <v>2300</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>66</v>
@@ -3216,13 +3216,13 @@
         <v>2400</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>71</v>
@@ -3253,13 +3253,13 @@
         <v>2500</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>74</v>
@@ -3293,11 +3293,11 @@
         <v>2600</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>75</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="28" spans="1:16" ht="51">
       <c r="A28" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="12" t="s">
@@ -3328,13 +3328,13 @@
         <v>2700</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>78</v>
@@ -3368,11 +3368,11 @@
         <v>2800</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>80</v>
@@ -3400,13 +3400,13 @@
         <v>2900</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>82</v>
@@ -3436,13 +3436,13 @@
         <v>3000</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>84</v>
@@ -3475,11 +3475,11 @@
         <v>3100</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>86</v>
@@ -3492,7 +3492,7 @@
         <v>5</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
@@ -3509,13 +3509,13 @@
         <v>3200</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>117</v>
@@ -3548,11 +3548,11 @@
         <v>3300</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>96</v>
@@ -3567,7 +3567,7 @@
         <v>5</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="6"/>
@@ -3584,13 +3584,13 @@
         <v>3400</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>93</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>94</v>
@@ -3622,13 +3622,13 @@
         <v>3500</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>98</v>
@@ -3662,13 +3662,13 @@
         <v>3600</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>101</v>
@@ -3702,11 +3702,11 @@
         <v>3700</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>103</v>
@@ -3722,7 +3722,7 @@
         <v>5</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="51">
@@ -3737,11 +3737,11 @@
         <v>3800</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>105</v>
@@ -3757,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="63.75">
@@ -3772,11 +3772,11 @@
         <v>3900</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>107</v>
@@ -3792,7 +3792,7 @@
         <v>5</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="51">
@@ -3807,11 +3807,11 @@
         <v>4000</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>109</v>
@@ -3824,7 +3824,7 @@
         <v>5</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="63.75">
@@ -3839,11 +3839,11 @@
         <v>4100</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>110</v>
@@ -3856,7 +3856,7 @@
         <v>5</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="51">
@@ -3871,11 +3871,11 @@
         <v>4200</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>119</v>
@@ -3888,7 +3888,7 @@
         <v>5</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="51">
@@ -3903,13 +3903,13 @@
         <v>4300</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>121</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>123</v>
@@ -3941,11 +3941,11 @@
         <v>4400</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>125</v>
@@ -3958,7 +3958,7 @@
         <v>5</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="51">
@@ -3973,13 +3973,13 @@
         <v>4500</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>127</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>129</v>
@@ -4009,11 +4009,11 @@
         <v>4600</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>130</v>
@@ -4026,7 +4026,7 @@
         <v>5</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="63.75">
@@ -4041,13 +4041,13 @@
         <v>4700</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F48" s="19" t="s">
         <v>132</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H48" s="19" t="s">
         <v>134</v>
@@ -4079,13 +4079,13 @@
         <v>4800</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>113</v>
@@ -4116,13 +4116,13 @@
         <v>4900</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>88</v>
@@ -4153,13 +4153,13 @@
         <v>5000</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>137</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H51" s="15" t="s">
         <v>139</v>
@@ -4189,11 +4189,11 @@
         <v>5100</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>141</v>
@@ -4208,7 +4208,7 @@
         <v>5</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O52" s="7"/>
       <c r="P52" s="6"/>
@@ -4225,13 +4225,13 @@
         <v>5200</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>143</v>
@@ -4262,13 +4262,13 @@
         <v>5300</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>145</v>
@@ -4299,13 +4299,13 @@
         <v>5400</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>147</v>
@@ -4336,13 +4336,13 @@
         <v>5500</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>149</v>
@@ -4373,13 +4373,13 @@
         <v>5600</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>151</v>
@@ -4413,13 +4413,13 @@
         <v>5700</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>154</v>
@@ -4452,13 +4452,13 @@
         <v>5800</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>158</v>
@@ -4486,13 +4486,13 @@
         <v>5900</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>159</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>160</v>
@@ -4522,13 +4522,13 @@
         <v>6000</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>162</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>163</v>
@@ -4558,13 +4558,13 @@
         <v>6100</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>165</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>166</v>
@@ -4595,13 +4595,13 @@
         <v>6200</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>165</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>167</v>
@@ -4629,13 +4629,13 @@
         <v>6300</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>168</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>169</v>
@@ -4668,13 +4668,13 @@
         <v>6400</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>172</v>
@@ -4706,13 +4706,13 @@
         <v>6500</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>175</v>
@@ -4740,13 +4740,13 @@
         <v>6600</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>176</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>177</v>
@@ -4779,13 +4779,13 @@
         <v>6700</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>179</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>180</v>
@@ -4816,13 +4816,13 @@
         <v>6800</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>181</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>182</v>
@@ -4853,13 +4853,13 @@
         <v>6900</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>185</v>
@@ -4892,13 +4892,13 @@
         <v>7000</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>187</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>188</v>
@@ -4932,13 +4932,13 @@
         <v>7100</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>192</v>
@@ -4971,13 +4971,13 @@
         <v>7200</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>195</v>
@@ -5010,13 +5010,13 @@
         <v>7300</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>197</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>198</v>
@@ -5052,13 +5052,13 @@
         <v>7400</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>197</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>202</v>
@@ -5091,13 +5091,13 @@
         <v>7500</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>204</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>205</v>
@@ -5128,13 +5128,13 @@
         <v>7600</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>207</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>208</v>
@@ -5161,13 +5161,13 @@
         <v>7700</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>211</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H78" s="15" t="s">
         <v>213</v>
@@ -5191,28 +5191,28 @@
         <v>210</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>215</v>
+        <v>504</v>
       </c>
       <c r="D79" s="13">
         <v>7800</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>211</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>381</v>
+        <v>505</v>
       </c>
       <c r="H79" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I79" s="15">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="I79" s="15">
-        <v>0</v>
-      </c>
-      <c r="J79" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="M79" s="1">
         <v>3</v>
@@ -5227,28 +5227,28 @@
         <v>210</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="13">
         <v>7900</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>211</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H80" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0</v>
+      </c>
+      <c r="J80" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="I80" s="15">
-        <v>0</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>220</v>
       </c>
       <c r="M80" s="1">
         <v>3</v>
@@ -5265,28 +5265,28 @@
         <v>210</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>221</v>
+        <v>507</v>
       </c>
       <c r="D81" s="13">
         <v>8000</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>211</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>383</v>
+        <v>506</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I81" s="15">
         <v>0</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M81" s="1">
         <v>3</v>
@@ -5310,22 +5310,22 @@
         <v>8100</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I82" s="4">
         <v>0</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M82" s="6">
         <v>3</v>
@@ -5349,16 +5349,16 @@
         <v>8200</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I83" s="4">
         <v>0</v>
@@ -5379,22 +5379,22 @@
         <v>49</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D84" s="13">
         <v>8300</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F84" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="H84" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="G84" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>229</v>
       </c>
       <c r="I84" s="19">
         <v>0</v>
@@ -5422,22 +5422,22 @@
         <v>8400</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F85" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I85" s="4">
-        <v>0</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="M85" s="6">
         <v>3</v>
@@ -5461,22 +5461,22 @@
         <v>8500</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F86" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I86" s="4">
-        <v>0</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="M86" s="6">
         <v>4</v>
@@ -5500,22 +5500,22 @@
         <v>8600</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I87" s="4">
         <v>0</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M87" s="6">
         <v>4</v>
@@ -5539,22 +5539,22 @@
         <v>8700</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="M88" s="6">
         <v>4</v>
@@ -5578,16 +5578,16 @@
         <v>8800</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I89" s="4">
         <v>0</v>
@@ -5615,16 +5615,16 @@
         <v>8900</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I90" s="4">
         <v>0</v>
@@ -5652,16 +5652,16 @@
         <v>9000</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I91" s="4">
         <v>0</v>
@@ -5689,16 +5689,16 @@
         <v>9100</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I92" s="4">
         <v>0</v>
@@ -5726,16 +5726,16 @@
         <v>9200</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I93" s="4">
         <v>0</v>
@@ -5760,16 +5760,16 @@
         <v>9300</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I94" s="4">
         <v>0</v>
@@ -5794,16 +5794,16 @@
         <v>9400</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I95" s="4">
         <v>0</v>
@@ -5828,16 +5828,16 @@
         <v>9500</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I96" s="4">
         <v>0</v>
@@ -5862,16 +5862,16 @@
         <v>9600</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I97" s="4">
         <v>0</v>
@@ -5881,7 +5881,7 @@
         <v>5</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>209</v>
@@ -5899,16 +5899,16 @@
         <v>9700</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I98" s="4">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>5</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O98" s="7" t="s">
         <v>209</v>
@@ -5936,16 +5936,16 @@
         <v>9800</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I99" s="4">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>5</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>209</v>
@@ -5973,14 +5973,14 @@
         <v>9900</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I100" s="11">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>5</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="25.5">
@@ -6007,14 +6007,14 @@
         <v>10000</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I101" s="11">
         <v>1</v>
@@ -6024,7 +6024,7 @@
         <v>5</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:16" s="23" customFormat="1" ht="25.5">
@@ -6039,14 +6039,14 @@
         <v>10100</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I102" s="11">
         <v>1</v>
@@ -6058,7 +6058,7 @@
         <v>5</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O102" s="7"/>
       <c r="P102" s="6"/>
@@ -6075,14 +6075,14 @@
         <v>10200</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I103" s="11">
         <v>1</v>
@@ -6092,11 +6092,11 @@
         <v>5</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O103" s="22"/>
       <c r="P103" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="38.25">
@@ -6111,14 +6111,14 @@
         <v>10300</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I104" s="11">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>5</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="38.25">
@@ -6143,14 +6143,14 @@
         <v>10400</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I105" s="11">
         <v>1</v>
@@ -6160,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="38.25">
@@ -6175,14 +6175,14 @@
         <v>10500</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I106" s="11">
         <v>1</v>
@@ -6192,7 +6192,7 @@
         <v>5</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="51">
@@ -6207,14 +6207,14 @@
         <v>10600</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I107" s="11">
         <v>1</v>
@@ -6224,13 +6224,13 @@
         <v>5</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="51">
@@ -6245,14 +6245,14 @@
         <v>10700</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I108" s="11">
         <v>1</v>
@@ -6262,7 +6262,7 @@
         <v>5</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O108" s="7" t="s">
         <v>57</v>
@@ -6280,14 +6280,14 @@
         <v>10800</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I109" s="11">
         <v>1</v>
@@ -6297,7 +6297,7 @@
         <v>5</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O109" s="7" t="s">
         <v>57</v>
@@ -6305,37 +6305,37 @@
     </row>
     <row r="110" spans="1:16" s="1" customFormat="1" ht="102">
       <c r="A110" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D110" s="13">
         <v>10900</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I110" s="15">
         <v>0</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M110" s="1">
         <v>5</v>
       </c>
       <c r="N110" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O110" s="15" t="s">
         <v>209</v>
@@ -6343,116 +6343,116 @@
     </row>
     <row r="111" spans="1:16" s="1" customFormat="1" ht="89.25">
       <c r="A111" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D111" s="13">
         <v>11000</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I111" s="15">
         <v>0</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M111" s="1">
         <v>5</v>
       </c>
       <c r="N111" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O111" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:16" s="1" customFormat="1" ht="89.25">
       <c r="A112" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D112" s="13">
         <v>11100</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I112" s="15">
         <v>0</v>
       </c>
       <c r="J112" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M112" s="1">
         <v>5</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="1" customFormat="1" ht="89.25">
       <c r="A113" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D113" s="13">
         <v>11200</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I113" s="15">
         <v>0</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M113" s="1">
         <v>5</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="25.5">
@@ -6467,14 +6467,14 @@
         <v>11300</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I114" s="11">
         <v>1</v>
@@ -6486,11 +6486,11 @@
         <v>5</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O114" s="22"/>
       <c r="P114" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="51">
@@ -6505,16 +6505,16 @@
         <v>11400</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I115" s="4">
         <v>0</v>
@@ -6542,16 +6542,16 @@
         <v>11500</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I116" s="4">
         <v>0</v>
@@ -6582,16 +6582,16 @@
         <v>11600</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I117" s="4">
         <v>0</v>
@@ -6619,14 +6619,14 @@
         <v>11700</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I118" s="11">
         <v>1</v>
@@ -6638,7 +6638,7 @@
         <v>5</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="51">
@@ -6653,16 +6653,16 @@
         <v>11800</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I119" s="4">
         <v>0</v>
@@ -6690,16 +6690,16 @@
         <v>11900</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I120" s="4">
         <v>0</v>
@@ -6730,14 +6730,14 @@
         <v>12000</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I121" s="11">
         <v>1</v>
@@ -6749,7 +6749,7 @@
         <v>5</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="51">
@@ -6764,16 +6764,16 @@
         <v>12100</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I122" s="4">
         <v>0</v>
@@ -6801,16 +6801,16 @@
         <v>12200</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I123" s="4">
         <v>0</v>
